--- a/股票池.xlsx
+++ b/股票池.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$L$1:$L$40</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +94,85 @@
   <si>
     <t>雄帝科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏利股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快克股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧普康视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩增长原因：公司加强培训和技术推广，提高了销量和高端产品的销售比例，取得了经营业绩的增长。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移为通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴齐眼药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩增长原因：公司产能提高，规模效益体现，毛利率提高，公司银行贷款余额减少，利率降低，财务费用较上年减少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百傲化学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未公布业绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞特股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年增长50%，16年0增长。。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚翔集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩增长原因：15年承接的厦门联芯洁净室项目预计总收入2.18亿，该项目于16年进入施工密集期，该项目的80%收入在16年确认。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州科达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星源材质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利安隆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛微网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣晟环保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业绩增长原因：第四季度原纸销售价格持续上涨及募投项目达产导致原纸产量提升，营收增长43.</t>
   </si>
 </sst>
 </file>
@@ -486,15 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,701 +619,1323 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>603579</v>
+        <v>300600</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>C2*D2</f>
-        <v>86.1</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="F2" s="3">
-        <v>2.0699999999999998</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>44.8</v>
+        <v>-5</v>
       </c>
       <c r="J2" s="1">
         <f>E2/F2</f>
-        <v>41.594202898550726</v>
+        <v>73.569999999999993</v>
+      </c>
+      <c r="K2" s="3" t="e">
+        <f>E2/G2</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L2" s="3">
         <f>J2/H2</f>
+        <v>-14.713999999999999</v>
+      </c>
+      <c r="M2" s="3" t="e">
+        <f>K2/I2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N2" s="3">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>300590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v>58.28</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-6</v>
+      </c>
+      <c r="J3" s="1">
+        <f>E3/F3</f>
+        <v>61.347368421052636</v>
+      </c>
+      <c r="K3" s="3" t="e">
+        <f>E3/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="3">
+        <f>J3/H3</f>
+        <v>-10.224561403508773</v>
+      </c>
+      <c r="M3" s="3" t="e">
+        <f>K3/I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>603929</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>32.29</v>
+      </c>
+      <c r="D4">
+        <v>2.13</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4*D4</f>
+        <v>68.777699999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="G4">
+        <v>2.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <f>E4/F4</f>
+        <v>38.209833333333329</v>
+      </c>
+      <c r="K4" s="3">
+        <f>E4/G4</f>
+        <v>32.751285714285714</v>
+      </c>
+      <c r="L4" s="3">
+        <f>J4/H4</f>
+        <v>0.38209833333333326</v>
+      </c>
+      <c r="M4" s="3">
+        <f>K4/I4</f>
+        <v>1.6375642857142858</v>
+      </c>
+      <c r="N4" s="3">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>300573</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5*D5</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="H5" s="3">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1">
+        <f>E5/F5</f>
+        <v>72.592592592592595</v>
+      </c>
+      <c r="K5" s="3" t="e">
+        <f>E5/G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="3">
+        <f>J5/H5</f>
+        <v>0.49720953830542874</v>
+      </c>
+      <c r="M5" s="3" t="e">
+        <f>K5/I5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="3">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>603585</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>71.59</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6*D6</f>
+        <v>71.59</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <f>E6/F6</f>
+        <v>39.772222222222226</v>
+      </c>
+      <c r="K6" s="3" t="e">
+        <f>E6/G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="3">
+        <f>J6/H6</f>
+        <v>0.79544444444444451</v>
+      </c>
+      <c r="M6" s="3" t="e">
+        <f>K6/I6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
+        <v>2821</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7*D7</f>
+        <v>146.89999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1">
+        <f>E7/F7</f>
+        <v>58.759999999999991</v>
+      </c>
+      <c r="K7" s="3" t="e">
+        <f>E7/G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="3">
+        <f>J7/H7</f>
+        <v>0.91812499999999986</v>
+      </c>
+      <c r="M7" s="3" t="e">
+        <f>K7/I7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>603579</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8*D8</f>
+        <v>86.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G8">
+        <v>2.6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44.8</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <f>E8/F8</f>
+        <v>41.594202898550726</v>
+      </c>
+      <c r="K8" s="3">
+        <f>E8/G8</f>
+        <v>33.115384615384613</v>
+      </c>
+      <c r="L8" s="3">
+        <f>J8/H8</f>
         <v>0.92844202898550732</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
-        <v>2821</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M8" s="3">
+        <f>K8/I8</f>
+        <v>1.1038461538461537</v>
+      </c>
+      <c r="N8" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>603360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>1.33</v>
+      </c>
+      <c r="E9" s="1">
+        <f>C9*D9</f>
+        <v>49.21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <f>E9/F9</f>
+        <v>54.677777777777777</v>
+      </c>
+      <c r="K9" s="3" t="e">
+        <f>E9/G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="3">
+        <f>J9/H9</f>
+        <v>1.3669444444444445</v>
+      </c>
+      <c r="M9" s="3" t="e">
+        <f>K9/I9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="3">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>603203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>59.41</v>
+      </c>
+      <c r="D10">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10*D10</f>
+        <v>54.657199999999996</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1">
+        <f>E10/F10</f>
+        <v>54.657199999999996</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f>E10/G10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="3">
+        <f>J10/H10</f>
+        <v>2.1021999999999998</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f>K10/I10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>300595</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>112</v>
+      </c>
+      <c r="D11">
+        <v>0.68</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*D11</f>
+        <v>76.160000000000011</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1">
+        <f>E11/F11</f>
+        <v>66.807017543859658</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f>E11/G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="3">
+        <f>J11/H11</f>
+        <v>2.3859649122807021</v>
+      </c>
+      <c r="M11" s="3" t="e">
+        <f>K11/I11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="3">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>603626</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>46.25</v>
+      </c>
+      <c r="D12">
+        <v>2.11</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12*D12</f>
+        <v>97.587499999999991</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <f>E12/F12</f>
+        <v>48.793749999999996</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <f>E12/G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="3">
+        <f>J12/H12</f>
+        <v>2.4396874999999998</v>
+      </c>
+      <c r="M12" s="3" t="e">
+        <f>K12/I12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>300546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C13*D13</f>
+        <v>53.300000000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="3">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>130</v>
-      </c>
-      <c r="D3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E40" si="0">C3*D3</f>
-        <v>146.89999999999998</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="J13" s="1">
+        <f>E13/F13</f>
+        <v>88.833333333333343</v>
+      </c>
+      <c r="K13" s="3" t="e">
+        <f>E13/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="3">
+        <f>J13/H13</f>
+        <v>5.9222222222222225</v>
+      </c>
+      <c r="M13" s="3" t="e">
+        <f>K13/I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>603660</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>2.5</v>
       </c>
-      <c r="H3" s="3">
-        <v>64</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J40" si="1">E3/F3</f>
-        <v>58.759999999999991</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L40" si="2">J3/H3</f>
-        <v>0.91812499999999986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>603626</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>46.25</v>
-      </c>
-      <c r="D4">
-        <v>2.11</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>97.587499999999991</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="1"/>
-        <v>48.793749999999996</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4396874999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>300546</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>53.300000000000004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="3">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>88.833333333333343</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9222222222222225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <f>C14*D14</f>
+        <v>82.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1">
+        <f>E14/F14</f>
+        <v>48.529411764705884</v>
+      </c>
+      <c r="K14" s="3" t="e">
+        <f>E14/G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="3">
+        <f>J14/H14</f>
+        <v>1.2132352941176472</v>
+      </c>
+      <c r="M14" s="3" t="e">
+        <f>K14/I14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>300568</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>71.5</v>
+      </c>
+      <c r="D15">
+        <v>1.2</v>
+      </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <f>C15*D15</f>
+        <v>85.8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="H15" s="3">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1">
+        <f>E15/F15</f>
+        <v>57.972972972972968</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <f>E15/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="3">
+        <f>J15/H15</f>
+        <v>1.8700959023539667</v>
+      </c>
+      <c r="M15" s="3" t="e">
+        <f>K15/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>300596</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>42.8</v>
+      </c>
+      <c r="D16">
+        <v>1.2</v>
+      </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12">
+        <f>C16*D16</f>
+        <v>51.359999999999992</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="3">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1">
+        <f>E16/F16</f>
+        <v>57.066666666666656</v>
+      </c>
+      <c r="K16" s="3" t="e">
+        <f>E16/G16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="3">
+        <f>J16/H16</f>
+        <v>2.4811594202898548</v>
+      </c>
+      <c r="M16" s="3" t="e">
+        <f>K16/I16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>603039</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>79.8</v>
+      </c>
+      <c r="D17">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C17*D17</f>
+        <v>53.226599999999998</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E17/F17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="3" t="e">
+        <f>E17/G17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12">
+        <f>J17/H17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="3" t="e">
+        <f>K17/I17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>603165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="D18">
+        <v>1.27</v>
+      </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12">
+        <f>C18*D18</f>
+        <v>51.371500000000005</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1">
+        <f>E18/F18</f>
+        <v>42.809583333333336</v>
+      </c>
+      <c r="K18" s="3" t="e">
+        <f>E18/G18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3">
+        <f>J18/H18</f>
+        <v>0.75104532163742699</v>
+      </c>
+      <c r="M18" s="3" t="e">
+        <f>K18/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="3">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f>C19*D19</f>
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
       <c r="J19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E19/F19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="3" t="e">
+        <f>E19/G19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12">
+        <f>J19/H19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="3" t="e">
+        <f>K19/I19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f>C20*D20</f>
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
       <c r="J20" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E20/F20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="3" t="e">
+        <f>E20/G20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12">
+        <f>J20/H20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="3" t="e">
+        <f>K20/I20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f>C21*D21</f>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="3"/>
       <c r="J21" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E21/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="3" t="e">
+        <f>E21/G21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12">
+        <f>J21/H21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="3" t="e">
+        <f>K21/I21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f>C22*D22</f>
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
       <c r="J22" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E22/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="3" t="e">
+        <f>E22/G22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12">
+        <f>J22/H22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="3" t="e">
+        <f>K22/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f>C23*D23</f>
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E23/F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="3" t="e">
+        <f>E23/G23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12">
+        <f>J23/H23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="3" t="e">
+        <f>K23/I23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f>C24*D24</f>
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="H24" s="3"/>
       <c r="J24" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E24/F24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="3" t="e">
+        <f>E24/G24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12">
+        <f>J24/H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="3" t="e">
+        <f>K24/I24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f>C25*D25</f>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="H25" s="3"/>
       <c r="J25" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E25/F25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="3" t="e">
+        <f>E25/G25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12">
+        <f>J25/H25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="3" t="e">
+        <f>K25/I25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f>C26*D26</f>
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
       <c r="J26" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E26/F26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="3" t="e">
+        <f>E26/G26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12">
+        <f>J26/H26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="3" t="e">
+        <f>K26/I26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E27/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f>E27/G27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12">
+        <f>J27/H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="3" t="e">
+        <f>K27/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f>C28*D28</f>
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" s="3"/>
       <c r="J28" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E28/F28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="3" t="e">
+        <f>E28/G28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12">
+        <f>J28/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="3" t="e">
+        <f>K28/I28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f>C29*D29</f>
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
       <c r="J29" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E29/F29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="3" t="e">
+        <f>E29/G29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12">
+        <f>J29/H29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="3" t="e">
+        <f>K29/I29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f>C30*D30</f>
         <v>0</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
       <c r="J30" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E30/F30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="3" t="e">
+        <f>E30/G30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12">
+        <f>J30/H30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="3" t="e">
+        <f>K30/I30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f>C31*D31</f>
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
       <c r="J31" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E31/F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="3" t="e">
+        <f>E31/G31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12">
+        <f>J31/H31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="3" t="e">
+        <f>K31/I31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f>C32*D32</f>
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
       <c r="J32" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E32/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="3" t="e">
+        <f>E32/G32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12">
+        <f>J32/H32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="3" t="e">
+        <f>K32/I32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="5:14">
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f>C33*D33</f>
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E33/F33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="3" t="e">
+        <f>E33/G33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12">
+        <f>J33/H33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="3" t="e">
+        <f>K33/I33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="5:14">
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f>C34*D34</f>
         <v>0</v>
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="3" t="e">
+        <f>E34/G34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12">
+        <f>J34/H34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="3" t="e">
+        <f>K34/I34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="5:14">
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f>C35*D35</f>
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E35/F35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="3" t="e">
+        <f>E35/G35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12">
+        <f>J35/H35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="3" t="e">
+        <f>K35/I35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="5:14">
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f>C36*D36</f>
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E36/F36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="3" t="e">
+        <f>E36/G36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12">
+        <f>J36/H36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="3" t="e">
+        <f>K36/I36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="5:14">
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f>C37*D37</f>
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E37/F37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="3" t="e">
+        <f>E37/G37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12">
+        <f>J37/H37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="3" t="e">
+        <f>K37/I37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="5:14">
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f>C38*D38</f>
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
       <c r="J38" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E38/F38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="3" t="e">
+        <f>E38/G38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12">
+        <f>J38/H38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="3" t="e">
+        <f>K38/I38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="5:14">
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f>C39*D39</f>
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E39/F39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="3" t="e">
+        <f>E39/G39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12">
+        <f>J39/H39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="3" t="e">
+        <f>K39/I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="5:14">
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f>C40*D40</f>
         <v>0</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E40/F40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="3" t="e">
+        <f>E40/G40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f>J40/H40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="3" t="e">
+        <f>K40/I40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L40">
+    <sortState ref="A2:N40">
+      <sortCondition ref="L1:L40"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/股票池.xlsx
+++ b/股票池.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,42 @@
   </si>
   <si>
     <t>1.业绩增长原因：第四季度原纸销售价格持续上涨及募投项目达产导致原纸产量提升，营收增长43.</t>
+  </si>
+  <si>
+    <t>数字认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万集科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和仁科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇金科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填权概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视源股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业绩增长原因：液晶显示主控卡业务凭借技术创新优势，快速供货优势，规模优势，品牌与客户优势和质量管理优势，不断扩大市场份额，市场占有率逐年提高，实现快速增长。公司交互智能平板业务凭借优良的产品质量，周到的客户服务，逐渐被市场接受和认可，品牌知名度不断提升，销售额和利润额显著提高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗科智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世名科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +607,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -640,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E40" si="0">C2*D2</f>
         <v>73.569999999999993</v>
       </c>
       <c r="F2" s="3">
@@ -650,19 +686,19 @@
         <v>-5</v>
       </c>
       <c r="J2" s="1">
-        <f>E2/F2</f>
+        <f t="shared" ref="J2:J40" si="1">E2/F2</f>
         <v>73.569999999999993</v>
       </c>
       <c r="K2" s="3" t="e">
-        <f>E2/G2</f>
+        <f t="shared" ref="K2:K40" si="2">E2/G2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L2" s="3">
-        <f>J2/H2</f>
+        <f t="shared" ref="L2:L40" si="3">J2/H2</f>
         <v>-14.713999999999999</v>
       </c>
       <c r="M2" s="3" t="e">
-        <f>K2/I2</f>
+        <f t="shared" ref="M2:M40" si="4">K2/I2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N2" s="3">
@@ -686,7 +722,7 @@
         <v>0.8</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>58.28</v>
       </c>
       <c r="F3" s="3">
@@ -696,19 +732,19 @@
         <v>-6</v>
       </c>
       <c r="J3" s="1">
-        <f>E3/F3</f>
+        <f t="shared" si="1"/>
         <v>61.347368421052636</v>
       </c>
       <c r="K3" s="3" t="e">
-        <f>E3/G3</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="3">
-        <f>J3/H3</f>
+        <f t="shared" si="3"/>
         <v>-10.224561403508773</v>
       </c>
       <c r="M3" s="3" t="e">
-        <f>K3/I3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="3">
@@ -729,7 +765,7 @@
         <v>2.13</v>
       </c>
       <c r="E4" s="1">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>68.777699999999996</v>
       </c>
       <c r="F4" s="3">
@@ -745,19 +781,19 @@
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <f>E4/F4</f>
+        <f t="shared" si="1"/>
         <v>38.209833333333329</v>
       </c>
       <c r="K4" s="3">
-        <f>E4/G4</f>
+        <f t="shared" si="2"/>
         <v>32.751285714285714</v>
       </c>
       <c r="L4" s="3">
-        <f>J4/H4</f>
+        <f t="shared" si="3"/>
         <v>0.38209833333333326</v>
       </c>
       <c r="M4" s="3">
-        <f>K4/I4</f>
+        <f t="shared" si="4"/>
         <v>1.6375642857142858</v>
       </c>
       <c r="N4" s="3">
@@ -781,7 +817,7 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="1">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
       <c r="F5" s="3">
@@ -791,19 +827,19 @@
         <v>146</v>
       </c>
       <c r="J5" s="1">
-        <f>E5/F5</f>
+        <f t="shared" si="1"/>
         <v>72.592592592592595</v>
       </c>
       <c r="K5" s="3" t="e">
-        <f>E5/G5</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="3">
-        <f>J5/H5</f>
+        <f t="shared" si="3"/>
         <v>0.49720953830542874</v>
       </c>
       <c r="M5" s="3" t="e">
-        <f>K5/I5</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="3">
@@ -827,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>71.59</v>
       </c>
       <c r="F6" s="3">
@@ -837,19 +873,19 @@
         <v>50</v>
       </c>
       <c r="J6" s="1">
-        <f>E6/F6</f>
+        <f t="shared" si="1"/>
         <v>39.772222222222226</v>
       </c>
       <c r="K6" s="3" t="e">
-        <f>E6/G6</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="3">
-        <f>J6/H6</f>
+        <f t="shared" si="3"/>
         <v>0.79544444444444451</v>
       </c>
       <c r="M6" s="3" t="e">
-        <f>K6/I6</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="3">
@@ -870,30 +906,36 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>146.89999999999998</v>
       </c>
       <c r="F7" s="3">
         <v>2.5</v>
       </c>
+      <c r="G7">
+        <v>3.3</v>
+      </c>
       <c r="H7" s="3">
         <v>64</v>
       </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
       <c r="J7" s="1">
-        <f>E7/F7</f>
+        <f t="shared" si="1"/>
         <v>58.759999999999991</v>
       </c>
-      <c r="K7" s="3" t="e">
-        <f>E7/G7</f>
-        <v>#DIV/0!</v>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>44.515151515151508</v>
       </c>
       <c r="L7" s="3">
-        <f>J7/H7</f>
+        <f t="shared" si="3"/>
         <v>0.91812499999999986</v>
       </c>
-      <c r="M7" s="3" t="e">
-        <f>K7/I7</f>
-        <v>#DIV/0!</v>
+      <c r="M7" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4838383838383835</v>
       </c>
       <c r="N7" s="3">
         <v>90</v>
@@ -913,7 +955,7 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>86.1</v>
       </c>
       <c r="F8" s="3">
@@ -929,19 +971,19 @@
         <v>30</v>
       </c>
       <c r="J8" s="1">
-        <f>E8/F8</f>
+        <f t="shared" si="1"/>
         <v>41.594202898550726</v>
       </c>
       <c r="K8" s="3">
-        <f>E8/G8</f>
+        <f t="shared" si="2"/>
         <v>33.115384615384613</v>
       </c>
       <c r="L8" s="3">
-        <f>J8/H8</f>
+        <f t="shared" si="3"/>
         <v>0.92844202898550732</v>
       </c>
       <c r="M8" s="3">
-        <f>K8/I8</f>
+        <f t="shared" si="4"/>
         <v>1.1038461538461537</v>
       </c>
       <c r="N8" s="3">
@@ -962,7 +1004,7 @@
         <v>1.33</v>
       </c>
       <c r="E9" s="1">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>49.21</v>
       </c>
       <c r="F9" s="3">
@@ -972,19 +1014,19 @@
         <v>40</v>
       </c>
       <c r="J9" s="1">
-        <f>E9/F9</f>
+        <f t="shared" si="1"/>
         <v>54.677777777777777</v>
       </c>
       <c r="K9" s="3" t="e">
-        <f>E9/G9</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="3">
-        <f>J9/H9</f>
+        <f t="shared" si="3"/>
         <v>1.3669444444444445</v>
       </c>
       <c r="M9" s="3" t="e">
-        <f>K9/I9</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N9" s="3">
@@ -1008,7 +1050,7 @@
         <v>0.92</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>54.657199999999996</v>
       </c>
       <c r="F10" s="3">
@@ -1018,19 +1060,19 @@
         <v>26</v>
       </c>
       <c r="J10" s="1">
-        <f>E10/F10</f>
+        <f t="shared" si="1"/>
         <v>54.657199999999996</v>
       </c>
       <c r="K10" s="3" t="e">
-        <f>E10/G10</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="3">
-        <f>J10/H10</f>
+        <f t="shared" si="3"/>
         <v>2.1021999999999998</v>
       </c>
       <c r="M10" s="3" t="e">
-        <f>K10/I10</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="3">
@@ -1051,7 +1093,7 @@
         <v>0.68</v>
       </c>
       <c r="E11" s="1">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>76.160000000000011</v>
       </c>
       <c r="F11" s="3">
@@ -1061,19 +1103,19 @@
         <v>28</v>
       </c>
       <c r="J11" s="1">
-        <f>E11/F11</f>
+        <f t="shared" si="1"/>
         <v>66.807017543859658</v>
       </c>
       <c r="K11" s="3" t="e">
-        <f>E11/G11</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="3">
-        <f>J11/H11</f>
+        <f t="shared" si="3"/>
         <v>2.3859649122807021</v>
       </c>
       <c r="M11" s="3" t="e">
-        <f>K11/I11</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3">
@@ -1097,7 +1139,7 @@
         <v>2.11</v>
       </c>
       <c r="E12" s="1">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>97.587499999999991</v>
       </c>
       <c r="F12" s="3">
@@ -1107,19 +1149,19 @@
         <v>20</v>
       </c>
       <c r="J12" s="1">
-        <f>E12/F12</f>
+        <f t="shared" si="1"/>
         <v>48.793749999999996</v>
       </c>
       <c r="K12" s="3" t="e">
-        <f>E12/G12</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="3">
-        <f>J12/H12</f>
+        <f t="shared" si="3"/>
         <v>2.4396874999999998</v>
       </c>
       <c r="M12" s="3" t="e">
-        <f>K12/I12</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="3">
@@ -1140,7 +1182,7 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="E13" s="1">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>53.300000000000004</v>
       </c>
       <c r="F13" s="3">
@@ -1150,19 +1192,19 @@
         <v>15</v>
       </c>
       <c r="J13" s="1">
-        <f>E13/F13</f>
+        <f t="shared" si="1"/>
         <v>88.833333333333343</v>
       </c>
       <c r="K13" s="3" t="e">
-        <f>E13/G13</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="3">
-        <f>J13/H13</f>
+        <f t="shared" si="3"/>
         <v>5.9222222222222225</v>
       </c>
       <c r="M13" s="3" t="e">
-        <f>K13/I13</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="3">
@@ -1183,7 +1225,7 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="1">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="F14" s="3">
@@ -1193,19 +1235,19 @@
         <v>40</v>
       </c>
       <c r="J14" s="1">
-        <f>E14/F14</f>
+        <f t="shared" si="1"/>
         <v>48.529411764705884</v>
       </c>
       <c r="K14" s="3" t="e">
-        <f>E14/G14</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="3">
-        <f>J14/H14</f>
+        <f t="shared" si="3"/>
         <v>1.2132352941176472</v>
       </c>
       <c r="M14" s="3" t="e">
-        <f>K14/I14</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="3"/>
@@ -1224,7 +1266,7 @@
         <v>1.2</v>
       </c>
       <c r="E15" s="1">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>85.8</v>
       </c>
       <c r="F15" s="3">
@@ -1234,19 +1276,19 @@
         <v>31</v>
       </c>
       <c r="J15" s="1">
-        <f>E15/F15</f>
+        <f t="shared" si="1"/>
         <v>57.972972972972968</v>
       </c>
       <c r="K15" s="3" t="e">
-        <f>E15/G15</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="3">
-        <f>J15/H15</f>
+        <f t="shared" si="3"/>
         <v>1.8700959023539667</v>
       </c>
       <c r="M15" s="3" t="e">
-        <f>K15/I15</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="3"/>
@@ -1265,7 +1307,7 @@
         <v>1.2</v>
       </c>
       <c r="E16" s="1">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>51.359999999999992</v>
       </c>
       <c r="F16" s="3">
@@ -1275,19 +1317,19 @@
         <v>23</v>
       </c>
       <c r="J16" s="1">
-        <f>E16/F16</f>
+        <f t="shared" si="1"/>
         <v>57.066666666666656</v>
       </c>
       <c r="K16" s="3" t="e">
-        <f>E16/G16</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="3">
-        <f>J16/H16</f>
+        <f t="shared" si="3"/>
         <v>2.4811594202898548</v>
       </c>
       <c r="M16" s="3" t="e">
-        <f>K16/I16</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3">
@@ -1308,25 +1350,25 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>53.226599999999998</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1" t="e">
-        <f>E17/F17</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="3" t="e">
-        <f>E17/G17</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="3" t="e">
-        <f>J17/H17</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="3" t="e">
-        <f>K17/I17</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="3"/>
@@ -1345,7 +1387,7 @@
         <v>1.27</v>
       </c>
       <c r="E18" s="1">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>51.371500000000005</v>
       </c>
       <c r="F18" s="3">
@@ -1355,19 +1397,19 @@
         <v>57</v>
       </c>
       <c r="J18" s="1">
-        <f>E18/F18</f>
+        <f t="shared" si="1"/>
         <v>42.809583333333336</v>
       </c>
       <c r="K18" s="3" t="e">
-        <f>E18/G18</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="3">
-        <f>J18/H18</f>
+        <f t="shared" si="3"/>
         <v>0.75104532163742699</v>
       </c>
       <c r="M18" s="3" t="e">
-        <f>K18/I18</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="3">
@@ -1378,551 +1420,669 @@
       </c>
     </row>
     <row r="19" spans="1:15">
+      <c r="A19">
+        <v>300579</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
       <c r="E19" s="1">
-        <f>C19*D19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="1" t="e">
-        <f>E19/F19</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="H19" s="3">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="K19" s="3" t="e">
-        <f>E19/G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="3" t="e">
-        <f>J19/H19</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="M19" s="3" t="e">
-        <f>K19/I19</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:15">
+      <c r="A20">
+        <v>300552</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>50.7</v>
+      </c>
+      <c r="D20">
+        <v>1.07</v>
+      </c>
       <c r="E20" s="1">
-        <f>C20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="1" t="e">
-        <f>E20/F20</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>54.249000000000009</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>79.080174927113717</v>
       </c>
       <c r="K20" s="3" t="e">
-        <f>E20/G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="3" t="e">
-        <f>J20/H20</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="3"/>
+        <v>11.297167846730531</v>
       </c>
       <c r="M20" s="3" t="e">
-        <f>K20/I20</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:15">
+      <c r="A21">
+        <v>300550</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>62.5</v>
+      </c>
+      <c r="D21">
+        <v>0.8</v>
+      </c>
       <c r="E21" s="1">
-        <f>C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="1" t="e">
-        <f>E21/F21</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>96.525096525096515</v>
       </c>
       <c r="K21" s="3" t="e">
-        <f>E21/G21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="3" t="e">
-        <f>J21/H21</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="3"/>
+        <v>96.525096525096515</v>
       </c>
       <c r="M21" s="3" t="e">
-        <f>K21/I21</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22">
+        <v>300561</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>82.5</v>
+      </c>
+      <c r="D22">
+        <v>0.84</v>
+      </c>
       <c r="E22" s="1">
-        <f>C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="1" t="e">
-        <f>E22/F22</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>92.399999999999991</v>
       </c>
       <c r="K22" s="3" t="e">
-        <f>E22/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="3" t="e">
-        <f>J22/H22</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1333333333333329</v>
       </c>
       <c r="M22" s="3" t="e">
-        <f>K22/I22</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="3"/>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23">
+        <v>2841</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
       <c r="E23" s="1">
-        <f>C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="1" t="e">
-        <f>E23/F23</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>108</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>47.027027027027025</v>
       </c>
       <c r="K23" s="3" t="e">
-        <f>E23/G23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="3" t="e">
-        <f>J23/H23</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43543543543543539</v>
       </c>
       <c r="M23" s="3" t="e">
-        <f>K23/I23</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="3"/>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
+      <c r="A24">
+        <v>300543</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
       <c r="E24" s="1">
-        <f>C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="1" t="e">
-        <f>E24/F24</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="H24" s="3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>78.94736842105263</v>
       </c>
       <c r="K24" s="3" t="e">
-        <f>E24/G24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="3" t="e">
-        <f>J24/H24</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5885167464114831</v>
       </c>
       <c r="M24" s="3" t="e">
-        <f>K24/I24</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:15">
+      <c r="A25">
+        <v>300522</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>78.78</v>
+      </c>
+      <c r="D25">
+        <v>0.66700000000000004</v>
+      </c>
       <c r="E25" s="1">
-        <f>C25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="e">
-        <f>E25/F25</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>52.546260000000004</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="H25" s="3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>80.840400000000002</v>
       </c>
       <c r="K25" s="3" t="e">
-        <f>E25/G25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="3" t="e">
-        <f>J25/H25</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4911333333333339</v>
       </c>
       <c r="M25" s="3" t="e">
-        <f>K25/I25</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:15">
       <c r="E26" s="1">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
       <c r="J26" s="1" t="e">
-        <f>E26/F26</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="3" t="e">
-        <f>E26/G26</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="3" t="e">
-        <f>J26/H26</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="3" t="e">
-        <f>K26/I26</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:15">
       <c r="E27" s="1">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" s="1" t="e">
-        <f>E27/F27</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="3" t="e">
-        <f>E27/G27</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3" t="e">
-        <f>J27/H27</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f>K27/I27</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:15">
       <c r="E28" s="1">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" s="3"/>
       <c r="J28" s="1" t="e">
-        <f>E28/F28</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="3" t="e">
-        <f>E28/G28</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="3" t="e">
-        <f>J28/H28</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="3" t="e">
-        <f>K28/I28</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:15">
       <c r="E29" s="1">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
       <c r="J29" s="1" t="e">
-        <f>E29/F29</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3" t="e">
-        <f>E29/G29</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="3" t="e">
-        <f>J29/H29</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="3" t="e">
-        <f>K29/I29</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:15">
       <c r="E30" s="1">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
       <c r="J30" s="1" t="e">
-        <f>E30/F30</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="3" t="e">
-        <f>E30/G30</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="3" t="e">
-        <f>J30/H30</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="3" t="e">
-        <f>K30/I30</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:15">
       <c r="E31" s="1">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
       <c r="J31" s="1" t="e">
-        <f>E31/F31</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="3" t="e">
-        <f>E31/G31</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="3" t="e">
-        <f>J31/H31</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="3" t="e">
-        <f>K31/I31</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:15">
       <c r="E32" s="1">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
       <c r="J32" s="1" t="e">
-        <f>E32/F32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="3" t="e">
-        <f>E32/G32</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="3" t="e">
-        <f>J32/H32</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="3" t="e">
-        <f>K32/I32</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="5:14">
       <c r="E33" s="1">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="1" t="e">
-        <f>E33/F33</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="3" t="e">
-        <f>E33/G33</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="3" t="e">
-        <f>J33/H33</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="3" t="e">
-        <f>K33/I33</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="5:14">
       <c r="E34" s="1">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="1" t="e">
-        <f>E34/F34</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="3" t="e">
-        <f>E34/G34</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="3" t="e">
-        <f>J34/H34</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="3" t="e">
-        <f>K34/I34</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="5:14">
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="1" t="e">
-        <f>E35/F35</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="3" t="e">
-        <f>E35/G35</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="3" t="e">
-        <f>J35/H35</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="3" t="e">
-        <f>K35/I35</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="5:14">
       <c r="E36" s="1">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="1" t="e">
-        <f>E36/F36</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="3" t="e">
-        <f>E36/G36</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="3" t="e">
-        <f>J36/H36</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="3" t="e">
-        <f>K36/I36</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="5:14">
       <c r="E37" s="1">
-        <f>C37*D37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="1" t="e">
-        <f>E37/F37</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="3" t="e">
-        <f>E37/G37</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="3" t="e">
-        <f>J37/H37</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="3" t="e">
-        <f>K37/I37</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="5:14">
       <c r="E38" s="1">
-        <f>C38*D38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
       <c r="J38" s="1" t="e">
-        <f>E38/F38</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="3" t="e">
-        <f>E38/G38</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="3" t="e">
-        <f>J38/H38</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="3" t="e">
-        <f>K38/I38</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="5:14">
       <c r="E39" s="1">
-        <f>C39*D39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="1" t="e">
-        <f>E39/F39</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="3" t="e">
-        <f>E39/G39</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="3" t="e">
-        <f>J39/H39</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="3" t="e">
-        <f>K39/I39</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="5:14">
       <c r="E40" s="1">
-        <f>C40*D40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="1" t="e">
-        <f>E40/F40</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="3" t="e">
-        <f>E40/G40</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="3" t="e">
-        <f>J40/H40</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="3" t="e">
-        <f>K40/I40</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="3"/>

--- a/股票池.xlsx
+++ b/股票池.xlsx
@@ -10,7 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$L$1:$L$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$L$1:$L$108</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,6 +208,74 @@
   </si>
   <si>
     <t>世名科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激智科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学膜领导企业，实际控制人首批入选国家“千人计划”，核心团队成员均有身后专业学术背景。量子点薄膜是大屏液晶显示器领域的发展趋势，公司拥有量子点薄膜专利并实现小批量供货。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英维克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至纯科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥联电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江龙船艇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦迪科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博天科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富瀚微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇顶科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦百合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝达药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江仙通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕同科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇纳科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +672,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -676,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E40" si="0">C2*D2</f>
+        <f>C2*D2</f>
         <v>73.569999999999993</v>
       </c>
       <c r="F2" s="3">
@@ -686,19 +756,19 @@
         <v>-5</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J40" si="1">E2/F2</f>
+        <f>E2/F2</f>
         <v>73.569999999999993</v>
       </c>
       <c r="K2" s="3" t="e">
-        <f t="shared" ref="K2:K40" si="2">E2/G2</f>
+        <f>E2/G2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L40" si="3">J2/H2</f>
+        <f>J2/H2</f>
         <v>-14.713999999999999</v>
       </c>
       <c r="M2" s="3" t="e">
-        <f t="shared" ref="M2:M40" si="4">K2/I2</f>
+        <f>K2/I2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N2" s="3">
@@ -722,7 +792,7 @@
         <v>0.8</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="0"/>
+        <f>C3*D3</f>
         <v>58.28</v>
       </c>
       <c r="F3" s="3">
@@ -732,19 +802,19 @@
         <v>-6</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
+        <f>E3/F3</f>
         <v>61.347368421052636</v>
       </c>
       <c r="K3" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E3/G3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="3"/>
+        <f>J3/H3</f>
         <v>-10.224561403508773</v>
       </c>
       <c r="M3" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K3/I3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="3">
@@ -753,590 +823,609 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>603929</v>
+        <v>300613</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>32.29</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>2.13</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>68.777699999999996</v>
+        <f>C4*D4</f>
+        <v>69.263999999999996</v>
       </c>
       <c r="F4" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G4">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
-        <v>38.209833333333329</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="2"/>
-        <v>32.751285714285714</v>
+        <f>E4/F4</f>
+        <v>62.967272727272722</v>
+      </c>
+      <c r="K4" s="3" t="e">
+        <f>E4/G4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
-        <v>0.38209833333333326</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6375642857142858</v>
-      </c>
-      <c r="N4" s="3">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
+        <f>J4/H4</f>
+        <v>0.31483636363636358</v>
+      </c>
+      <c r="M4" s="3" t="e">
+        <f>K4/I4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>300573</v>
+        <v>603160</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>97.11</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>4.45</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>39.200000000000003</v>
+        <f>C5*D5</f>
+        <v>432.1395</v>
       </c>
       <c r="F5" s="3">
-        <v>0.54</v>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G5">
+        <v>10.68</v>
       </c>
       <c r="H5" s="3">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>72.592592592592595</v>
-      </c>
-      <c r="K5" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E5/F5</f>
+        <v>50.542631578947365</v>
+      </c>
+      <c r="K5" s="3">
+        <f>E5/G5</f>
+        <v>40.462499999999999</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.49720953830542874</v>
-      </c>
-      <c r="M5" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="3">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
+        <f>J5/H5</f>
+        <v>2.5271315789473681</v>
+      </c>
+      <c r="M5" s="3">
+        <f>K5/I5</f>
+        <v>2.0231249999999998</v>
+      </c>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>603585</v>
+        <v>2841</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>71.59</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>71.59</v>
+        <f>C6*D6</f>
+        <v>348</v>
       </c>
       <c r="F6" s="3">
-        <v>1.8</v>
+        <v>7.4</v>
+      </c>
+      <c r="G6">
+        <v>9.6</v>
       </c>
       <c r="H6" s="3">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>39.772222222222226</v>
-      </c>
-      <c r="K6" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E6/F6</f>
+        <v>47.027027027027025</v>
+      </c>
+      <c r="K6" s="3">
+        <f>E6/G6</f>
+        <v>36.25</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.79544444444444451</v>
-      </c>
-      <c r="M6" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="3">
-        <v>60</v>
+        <f>J6/H6</f>
+        <v>0.43543543543543539</v>
+      </c>
+      <c r="M6" s="3">
+        <f>K6/I6</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
-        <v>2821</v>
+      <c r="A7">
+        <v>300573</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>1.1299999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>146.89999999999998</v>
+        <f>C7*D7</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="F7" s="3">
-        <v>2.5</v>
+        <v>0.54</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H7" s="3">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>58.759999999999991</v>
+        <f>E7/F7</f>
+        <v>72.592592592592595</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
-        <v>44.515151515151508</v>
+        <f>E7/G7</f>
+        <v>56.000000000000007</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.91812499999999986</v>
+        <f>J7/H7</f>
+        <v>0.49720953830542874</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="4"/>
-        <v>1.4838383838383835</v>
+        <f>K7/I7</f>
+        <v>1.8666666666666669</v>
       </c>
       <c r="N7" s="3">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>603579</v>
+        <v>603239</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>83.84</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>86.1</v>
+        <f>C8*D8</f>
+        <v>75.456000000000003</v>
       </c>
       <c r="F8" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G8">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H8" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>41.594202898550726</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>33.115384615384613</v>
+        <f>E8/F8</f>
+        <v>50.304000000000002</v>
+      </c>
+      <c r="K8" s="3" t="e">
+        <f>E8/G8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.92844202898550732</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1038461538461537</v>
-      </c>
-      <c r="N8" s="3">
-        <v>85</v>
-      </c>
+        <f>J8/H8</f>
+        <v>0.69866666666666666</v>
+      </c>
+      <c r="M8" s="3" t="e">
+        <f>K8/I8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>603360</v>
+        <v>603165</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="D9">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>49.21</v>
+        <f>C9*D9</f>
+        <v>51.371500000000005</v>
       </c>
       <c r="F9" s="3">
-        <v>0.9</v>
+        <v>1.2</v>
+      </c>
+      <c r="G9">
+        <v>1.56</v>
       </c>
       <c r="H9" s="3">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>54.677777777777777</v>
-      </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E9/F9</f>
+        <v>42.809583333333336</v>
+      </c>
+      <c r="K9" s="3">
+        <f>E9/G9</f>
+        <v>32.930448717948721</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3669444444444445</v>
-      </c>
-      <c r="M9" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>J9/H9</f>
+        <v>0.75104532163742699</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9/I9</f>
+        <v>1.0976816239316241</v>
       </c>
       <c r="N9" s="3">
         <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>603203</v>
+        <v>603585</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>59.41</v>
+        <v>71.59</v>
       </c>
       <c r="D10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>54.657199999999996</v>
+        <f>C10*D10</f>
+        <v>71.59</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <v>2.34</v>
       </c>
       <c r="H10" s="3">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>54.657199999999996</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E10/F10</f>
+        <v>39.772222222222226</v>
+      </c>
+      <c r="K10" s="3">
+        <f>E10/G10</f>
+        <v>30.594017094017097</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1021999999999998</v>
-      </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>J10/H10</f>
+        <v>0.79544444444444451</v>
+      </c>
+      <c r="M10" s="3">
+        <f>K10/I10</f>
+        <v>1.0198005698005699</v>
       </c>
       <c r="N10" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11">
-        <v>300595</v>
+      <c r="A11" s="2">
+        <v>2821</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>0.68</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>76.160000000000011</v>
+        <f>C11*D11</f>
+        <v>146.89999999999998</v>
       </c>
       <c r="F11" s="3">
-        <v>1.1399999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>3.3</v>
       </c>
       <c r="H11" s="3">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
-        <v>66.807017543859658</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E11/F11</f>
+        <v>58.759999999999991</v>
+      </c>
+      <c r="K11" s="3">
+        <f>E11/G11</f>
+        <v>44.515151515151508</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3859649122807021</v>
-      </c>
-      <c r="M11" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>J11/H11</f>
+        <v>0.91812499999999986</v>
+      </c>
+      <c r="M11" s="3">
+        <f>K11/I11</f>
+        <v>1.4838383838383835</v>
       </c>
       <c r="N11" s="3">
-        <v>85</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>603626</v>
+        <v>603579</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>46.25</v>
+        <v>123</v>
       </c>
       <c r="D12">
-        <v>2.11</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>97.587499999999991</v>
+        <f>C12*D12</f>
+        <v>86.1</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G12">
+        <v>2.6</v>
       </c>
       <c r="H12" s="3">
-        <v>20</v>
+        <v>44.8</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>48.793749999999996</v>
-      </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E12/F12</f>
+        <v>41.594202898550726</v>
+      </c>
+      <c r="K12" s="3">
+        <f>E12/G12</f>
+        <v>33.115384615384613</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4396874999999998</v>
-      </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>J12/H12</f>
+        <v>0.92844202898550732</v>
+      </c>
+      <c r="M12" s="3">
+        <f>K12/I12</f>
+        <v>1.1038461538461537</v>
       </c>
       <c r="N12" s="3">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>300546</v>
+        <v>603690</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>27.5</v>
       </c>
       <c r="D13">
-        <v>0.53300000000000003</v>
+        <v>2.08</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>53.300000000000004</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>15</v>
+        <f>C13*D13</f>
+        <v>57.2</v>
+      </c>
+      <c r="F13">
+        <v>0.44</v>
+      </c>
+      <c r="G13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H13">
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>88.833333333333343</v>
-      </c>
-      <c r="K13" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E13/F13</f>
+        <v>130</v>
+      </c>
+      <c r="K13" s="3">
+        <f>E13/G13</f>
+        <v>100.35087719298247</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
-        <v>5.9222222222222225</v>
-      </c>
-      <c r="M13" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="3">
-        <v>80</v>
+        <f>J13/H13</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="M13" s="3">
+        <f>K13/I13</f>
+        <v>3.3450292397660824</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>603660</v>
+        <v>2831</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>68.8</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14*D14</f>
+        <v>275.2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H14" s="3">
         <v>32</v>
       </c>
-      <c r="C14">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>2.5</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="H14" s="3">
-        <v>40</v>
-      </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>48.529411764705884</v>
+        <f>E14/F14</f>
+        <v>31.632183908045977</v>
       </c>
       <c r="K14" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E14/G14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2132352941176472</v>
+        <f>J14/H14</f>
+        <v>0.9885057471264368</v>
       </c>
       <c r="M14" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K14/I14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>300568</v>
+        <v>603660</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
         <v>33</v>
       </c>
-      <c r="C15">
-        <v>71.5</v>
-      </c>
       <c r="D15">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>85.8</v>
+        <f>C15*D15</f>
+        <v>82.5</v>
       </c>
       <c r="F15" s="3">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="H15" s="3">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>57.972972972972968</v>
+        <f>E15/F15</f>
+        <v>48.529411764705884</v>
       </c>
       <c r="K15" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E15/G15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
-        <v>1.8700959023539667</v>
+        <f>J15/H15</f>
+        <v>1.2132352941176472</v>
       </c>
       <c r="M15" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K15/I15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>300596</v>
+        <v>603360</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>42.8</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>51.359999999999992</v>
+        <f>C16*D16</f>
+        <v>49.21</v>
       </c>
       <c r="F16" s="3">
         <v>0.9</v>
       </c>
       <c r="H16" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>57.066666666666656</v>
+        <f>E16/F16</f>
+        <v>54.677777777777777</v>
       </c>
       <c r="K16" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E16/G16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4811594202898548</v>
+        <f>J16/H16</f>
+        <v>1.3669444444444445</v>
       </c>
       <c r="M16" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K16/I16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1">
       <c r="A17">
         <v>603039</v>
       </c>
@@ -1350,747 +1439,2560 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f>C17*D17</f>
         <v>53.226599999999998</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
       <c r="J17" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E17/F17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E17/G17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J17/H17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K17/I17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>603165</v>
+        <v>603603</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C18">
-        <v>40.450000000000003</v>
+        <v>20.8</v>
       </c>
       <c r="D18">
-        <v>1.27</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>51.371500000000005</v>
+        <f>C18*D18</f>
+        <v>83.2</v>
       </c>
       <c r="F18" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="3">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>42.809583333333336</v>
+        <f>E18/F18</f>
+        <v>55.466666666666669</v>
       </c>
       <c r="K18" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E18/G18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.75104532163742699</v>
+        <f>J18/H18</f>
+        <v>1.848888888888889</v>
       </c>
       <c r="M18" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3">
-        <v>60</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
+        <f>K18/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>300579</v>
+        <v>300568</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>71.5</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>C19*D19</f>
+        <v>85.8</v>
       </c>
       <c r="F19" s="3">
-        <v>0.72</v>
+        <v>1.48</v>
       </c>
       <c r="H19" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <f>E19/F19</f>
+        <v>57.972972972972968</v>
       </c>
       <c r="K19" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E19/G19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0833333333333335</v>
+        <f>J19/H19</f>
+        <v>1.8700959023539667</v>
       </c>
       <c r="M19" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K19/I19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>300552</v>
+        <v>603929</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>50.7</v>
+        <v>32.29</v>
       </c>
       <c r="D20">
-        <v>1.07</v>
+        <v>2.13</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>54.249000000000009</v>
+        <f>C20*D20</f>
+        <v>68.777699999999996</v>
       </c>
       <c r="F20" s="3">
-        <v>0.68600000000000005</v>
+        <v>1.8</v>
+      </c>
+      <c r="G20">
+        <v>2.1</v>
       </c>
       <c r="H20" s="3">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>79.080174927113717</v>
-      </c>
-      <c r="K20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>E20/F20</f>
+        <v>38.209833333333329</v>
+      </c>
+      <c r="K20" s="3">
+        <f>E20/G20</f>
+        <v>32.751285714285714</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="3"/>
-        <v>11.297167846730531</v>
-      </c>
-      <c r="M20" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="3"/>
+        <f>J20/H20</f>
+        <v>1.9104916666666665</v>
+      </c>
+      <c r="M20" s="3">
+        <f>K20/I20</f>
+        <v>1.6375642857142858</v>
+      </c>
+      <c r="N20" s="3">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>300550</v>
+        <v>300579</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>0.8</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>C21*D21</f>
+        <v>48</v>
       </c>
       <c r="F21" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>96.525096525096515</v>
+        <f>E21/F21</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="K21" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E21/G21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
-        <v>96.525096525096515</v>
+        <f>J21/H21</f>
+        <v>2.0833333333333335</v>
       </c>
       <c r="M21" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K21/I21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>300561</v>
+        <v>603203</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>82.5</v>
+        <v>59.41</v>
       </c>
       <c r="D22">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>69.3</v>
+        <f>C22*D22</f>
+        <v>54.657199999999996</v>
       </c>
       <c r="F22" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>92.399999999999991</v>
+        <f>E22/F22</f>
+        <v>54.657199999999996</v>
       </c>
       <c r="K22" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E22/G22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
-        <v>5.1333333333333329</v>
+        <f>J22/H22</f>
+        <v>2.1021999999999998</v>
       </c>
       <c r="M22" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" t="s">
-        <v>42</v>
+        <f>K22/I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>2841</v>
+        <v>300609</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>30.34</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>348</v>
+        <f>C23*D23</f>
+        <v>30.34</v>
       </c>
       <c r="F23" s="3">
-        <v>7.4</v>
+        <v>0.48</v>
       </c>
       <c r="H23" s="3">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>47.027027027027025</v>
+        <f>E23/F23</f>
+        <v>63.208333333333336</v>
       </c>
       <c r="K23" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E23/G23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
-        <v>0.43543543543543539</v>
+        <f>J23/H23</f>
+        <v>2.1069444444444447</v>
       </c>
       <c r="M23" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K23/I23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>300543</v>
+        <v>300585</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>45.8</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="H24" s="3">
-        <v>22</v>
+        <f>C24*D24</f>
+        <v>36.64</v>
+      </c>
+      <c r="F24">
+        <v>0.52</v>
+      </c>
+      <c r="H24">
+        <v>31</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>78.94736842105263</v>
+        <f>E24/F24</f>
+        <v>70.461538461538467</v>
       </c>
       <c r="K24" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E24/G24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5885167464114831</v>
+        <f>J24/H24</f>
+        <v>2.272952853598015</v>
       </c>
       <c r="M24" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="3"/>
+        <f>K24/I24</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
+        <v>300595</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>112</v>
+      </c>
+      <c r="D25">
+        <v>0.68</v>
+      </c>
+      <c r="E25" s="1">
+        <f>C25*D25</f>
+        <v>76.160000000000011</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1">
+        <f>E25/F25</f>
+        <v>66.807017543859658</v>
+      </c>
+      <c r="K25" s="3" t="e">
+        <f>E25/G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="3">
+        <f>J25/H25</f>
+        <v>2.3859649122807021</v>
+      </c>
+      <c r="M25" s="3" t="e">
+        <f>K25/I25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="3">
+        <v>85</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>603626</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>46.25</v>
+      </c>
+      <c r="D26">
+        <v>2.11</v>
+      </c>
+      <c r="E26" s="1">
+        <f>C26*D26</f>
+        <v>97.587499999999991</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1">
+        <f>E26/F26</f>
+        <v>48.793749999999996</v>
+      </c>
+      <c r="K26" s="3" t="e">
+        <f>E26/G26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="3">
+        <f>J26/H26</f>
+        <v>2.4396874999999998</v>
+      </c>
+      <c r="M26" s="3" t="e">
+        <f>K26/I26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>300596</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>42.8</v>
+      </c>
+      <c r="D27">
+        <v>1.2</v>
+      </c>
+      <c r="E27" s="1">
+        <f>C27*D27</f>
+        <v>51.359999999999992</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1">
+        <f>E27/F27</f>
+        <v>57.066666666666656</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f>E27/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="3">
+        <f>J27/H27</f>
+        <v>2.4811594202898548</v>
+      </c>
+      <c r="M27" s="3" t="e">
+        <f>K27/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>603313</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>35.6</v>
+      </c>
+      <c r="D28">
+        <v>2.4</v>
+      </c>
+      <c r="E28" s="1">
+        <f>C28*D28</f>
+        <v>85.44</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1">
+        <f>E28/F28</f>
+        <v>47.466666666666661</v>
+      </c>
+      <c r="K28" s="3" t="e">
+        <f>E28/G28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="3">
+        <f>J28/H28</f>
+        <v>3.1644444444444439</v>
+      </c>
+      <c r="M28" s="3" t="e">
+        <f>K28/I28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>300543</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="1">
+        <f>C29*D29</f>
+        <v>60</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="H29" s="3">
+        <v>22</v>
+      </c>
+      <c r="J29" s="1">
+        <f>E29/F29</f>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="K29" s="3" t="e">
+        <f>E29/G29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="3">
+        <f>J29/H29</f>
+        <v>3.5885167464114831</v>
+      </c>
+      <c r="M29" s="3" t="e">
+        <f>K29/I29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>603990</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="1">
+        <f>C30*D30</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1">
+        <f>E30/F30</f>
+        <v>102</v>
+      </c>
+      <c r="K30" s="3" t="e">
+        <f>E30/G30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="3">
+        <f>J30/H30</f>
+        <v>4.4347826086956523</v>
+      </c>
+      <c r="M30" s="3" t="e">
+        <f>K30/I30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
         <v>300522</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <v>78.78</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E31" s="1">
+        <f>C31*D31</f>
         <v>52.546260000000004</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F31" s="3">
         <v>0.65</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H31" s="3">
         <v>18</v>
       </c>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
+      <c r="J31" s="1">
+        <f>E31/F31</f>
         <v>80.840400000000002</v>
       </c>
-      <c r="K25" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="3"/>
+      <c r="K31" s="3" t="e">
+        <f>E31/G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="3">
+        <f>J31/H31</f>
         <v>4.4911333333333339</v>
       </c>
-      <c r="M25" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="J30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M31" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K31/I31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:15">
+      <c r="A32">
+        <v>300561</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>82.5</v>
+      </c>
+      <c r="D32">
+        <v>0.84</v>
+      </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="J32" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C32*D32</f>
+        <v>69.3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="3">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1">
+        <f>E32/F32</f>
+        <v>92.399999999999991</v>
       </c>
       <c r="K32" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E32/G32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="3">
+        <f>J32/H32</f>
+        <v>5.1333333333333329</v>
       </c>
       <c r="M32" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K32/I32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="5:14">
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>300546</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="J33" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C33*D33</f>
+        <v>53.300000000000004</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1">
+        <f>E33/F33</f>
+        <v>88.833333333333343</v>
       </c>
       <c r="K33" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E33/G33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="3">
+        <f>J33/H33</f>
+        <v>5.9222222222222225</v>
       </c>
       <c r="M33" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="5:14">
+        <f>K33/I33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>300589</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>44.5</v>
+      </c>
+      <c r="D34">
+        <v>0.87</v>
+      </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C34*D34</f>
+        <v>38.714999999999996</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="H34" s="3">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1">
+        <f>E34/F34</f>
+        <v>104.63513513513513</v>
       </c>
       <c r="K34" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E34/G34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="3">
+        <f>J34/H34</f>
+        <v>7.4739382239382239</v>
       </c>
       <c r="M34" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K34/I34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="5:14">
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>300566</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="J35" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C35*D35</f>
+        <v>52.167999999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <f>E35/F35</f>
+        <v>82.806349206349211</v>
       </c>
       <c r="K35" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E35/G35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="3">
+        <f>J35/H35</f>
+        <v>8.2806349206349203</v>
       </c>
       <c r="M35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="5:14">
+        <f>K35/I35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="3">
+        <v>80</v>
+      </c>
+      <c r="O35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>2837</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>56.31</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C36*D36</f>
+        <v>45.048000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.72</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1">
+        <f>E36/F36</f>
+        <v>62.56666666666667</v>
       </c>
       <c r="K36" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E36/G36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="3">
+        <f>J36/H36</f>
+        <v>8.9380952380952383</v>
       </c>
       <c r="M36" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="5:14">
+        <f>K36/I36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1">
+      <c r="A37">
+        <v>603877</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>39.35</v>
+      </c>
+      <c r="D37">
+        <v>4.75</v>
+      </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C37*D37</f>
+        <v>186.91249999999999</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E37/F37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E37/G37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J37/H37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K37/I37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="5:14">
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>300552</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>50.7</v>
+      </c>
+      <c r="D38">
+        <v>1.07</v>
+      </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>C38*D38</f>
+        <v>54.249000000000009</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H38" s="3">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <f>E38/F38</f>
+        <v>79.080174927113717</v>
       </c>
       <c r="K38" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f>E38/G38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="3">
+        <f>J38/H38</f>
+        <v>11.297167846730531</v>
       </c>
       <c r="M38" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K38/I38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="5:14">
+    <row r="39" spans="1:15" hidden="1">
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
+        <f>C39*D39</f>
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E39/F39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E39/G39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J39/H39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K39/I39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="5:14">
+    <row r="40" spans="1:15" hidden="1">
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
+        <f>C40*D40</f>
         <v>0</v>
       </c>
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="1" t="e">
+        <f>E40/F40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="3" t="e">
+        <f>E40/G40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="3" t="e">
+        <f>J40/H40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="3" t="e">
+        <f>K40/I40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>300558</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>70.5</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <f>C41*D41</f>
+        <v>282</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+      <c r="J41" s="1">
+        <f>E41/F41</f>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="K41" s="3" t="e">
+        <f>E41/G41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="3">
+        <f>J41/H41</f>
+        <v>13.055555555555555</v>
+      </c>
+      <c r="M41" s="3" t="e">
+        <f>K41/I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>603928</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <f>C42*D42</f>
+        <v>54</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <f>E42/F42</f>
+        <v>54</v>
+      </c>
+      <c r="K42" s="3" t="e">
+        <f>E42/G42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="3">
+        <f>J42/H42</f>
+        <v>54</v>
+      </c>
+      <c r="M42" s="3" t="e">
+        <f>K42/I42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>300550</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>62.5</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43" s="1">
+        <f>C43*D43</f>
+        <v>50</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <f>E43/F43</f>
+        <v>96.525096525096515</v>
+      </c>
+      <c r="K43" s="3" t="e">
+        <f>E43/G43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="3">
+        <f>J43/H43</f>
+        <v>96.525096525096515</v>
+      </c>
+      <c r="M43" s="3" t="e">
+        <f>K43/I43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" hidden="1">
+      <c r="E44" s="1">
+        <f t="shared" ref="E2:E65" si="0">C44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="e">
+        <f t="shared" ref="J2:J65" si="1">E44/F44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="3" t="e">
+        <f t="shared" ref="K2:K65" si="2">E44/G44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="3" t="e">
+        <f t="shared" ref="L2:L65" si="3">J44/H44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="3" t="e">
+        <f t="shared" ref="M2:M65" si="4">K44/I44</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1">
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="3" t="e">
+      <c r="K45" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="3" t="e">
+      <c r="L45" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="3" t="e">
+      <c r="M45" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="3"/>
+    </row>
+    <row r="46" spans="1:15" hidden="1">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1">
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1">
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" hidden="1">
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" hidden="1">
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" hidden="1">
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" hidden="1">
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" hidden="1">
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" hidden="1">
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" hidden="1">
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" hidden="1">
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" hidden="1">
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" hidden="1">
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L58" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" hidden="1">
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" hidden="1">
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" hidden="1">
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" hidden="1">
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L62" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" hidden="1">
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L63" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M63" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" hidden="1">
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L64" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" hidden="1">
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L65" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" hidden="1">
+      <c r="E66" s="1">
+        <f t="shared" ref="E66:E108" si="5">C66*D66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="e">
+        <f t="shared" ref="J66:J108" si="6">E66/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="3" t="e">
+        <f t="shared" ref="K66:K107" si="7">E66/G66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="3" t="e">
+        <f t="shared" ref="L66:L108" si="8">J66/H66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="3" t="e">
+        <f t="shared" ref="M66:M108" si="9">K66/I66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" hidden="1">
+      <c r="E67" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L67" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" hidden="1">
+      <c r="E68" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K68" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L68" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M68" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" hidden="1">
+      <c r="E69" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" hidden="1">
+      <c r="E70" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L70" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M70" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13" hidden="1">
+      <c r="E71" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L71" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13" hidden="1">
+      <c r="E72" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" hidden="1">
+      <c r="E73" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K73" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L73" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M73" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" hidden="1">
+      <c r="E74" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K74" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L74" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M74" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" hidden="1">
+      <c r="E75" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K75" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L75" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M75" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" hidden="1">
+      <c r="E76" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K76" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L76" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M76" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" hidden="1">
+      <c r="E77" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K77" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L77" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M77" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" hidden="1">
+      <c r="E78" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K78" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L78" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M78" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13" hidden="1">
+      <c r="E79" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K79" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M79" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="5:13" hidden="1">
+      <c r="E80" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K80" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M80" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" hidden="1">
+      <c r="E81" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K81" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L81" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M81" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" hidden="1">
+      <c r="E82" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K82" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L82" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M82" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" hidden="1">
+      <c r="E83" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L83" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M83" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" hidden="1">
+      <c r="E84" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K84" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L84" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M84" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" hidden="1">
+      <c r="E85" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K85" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L85" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M85" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" hidden="1">
+      <c r="E86" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K86" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L86" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M86" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" hidden="1">
+      <c r="E87" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K87" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L87" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M87" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" hidden="1">
+      <c r="E88" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M88" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" hidden="1">
+      <c r="E89" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K89" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L89" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M89" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" hidden="1">
+      <c r="E90" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K90" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L90" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M90" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" hidden="1">
+      <c r="E91" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K91" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L91" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M91" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" hidden="1">
+      <c r="E92" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K92" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L92" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M92" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" hidden="1">
+      <c r="E93" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K93" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L93" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M93" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" hidden="1">
+      <c r="E94" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K94" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L94" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M94" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" hidden="1">
+      <c r="E95" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K95" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L95" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M95" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" hidden="1">
+      <c r="E96" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K96" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L96" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M96" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13" hidden="1">
+      <c r="E97" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L97" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M97" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13" hidden="1">
+      <c r="E98" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K98" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L98" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M98" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13" hidden="1">
+      <c r="E99" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K99" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L99" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13" hidden="1">
+      <c r="E100" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K100" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L100" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13" hidden="1">
+      <c r="E101" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K101" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L101" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13" hidden="1">
+      <c r="E102" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K102" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L102" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13" hidden="1">
+      <c r="E103" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K103" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L103" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13" hidden="1">
+      <c r="E104" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K104" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L104" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M104" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="5:13" hidden="1">
+      <c r="E105" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K105" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M105" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13" hidden="1">
+      <c r="E106" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K106" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L106" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M106" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="5:13" hidden="1">
+      <c r="E107" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K107" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L107" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M107" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="5:13" hidden="1">
+      <c r="E108" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L108" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M108" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L40">
-    <sortState ref="A2:N40">
-      <sortCondition ref="L1:L40"/>
+  <autoFilter ref="L1:L108">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0.31"/>
+        <filter val="0.38"/>
+        <filter val="0.40"/>
+        <filter val="0.44"/>
+        <filter val="0.50"/>
+        <filter val="0.70"/>
+        <filter val="0.75"/>
+        <filter val="0.80"/>
+        <filter val="0.92"/>
+        <filter val="0.93"/>
+        <filter val="0.99"/>
+        <filter val="1.21"/>
+        <filter val="1.37"/>
+        <filter val="1.85"/>
+        <filter val="1.87"/>
+        <filter val="-10.22"/>
+        <filter val="11.30"/>
+        <filter val="13.06"/>
+        <filter val="-14.71"/>
+        <filter val="2.08"/>
+        <filter val="2.10"/>
+        <filter val="2.11"/>
+        <filter val="2.27"/>
+        <filter val="2.39"/>
+        <filter val="2.44"/>
+        <filter val="2.48"/>
+        <filter val="3.16"/>
+        <filter val="3.59"/>
+        <filter val="4.43"/>
+        <filter val="4.49"/>
+        <filter val="5.13"/>
+        <filter val="5.92"/>
+        <filter val="54.00"/>
+        <filter val="7.47"/>
+        <filter val="8.28"/>
+        <filter val="8.94"/>
+        <filter val="96.53"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:O43">
+      <sortCondition ref="L1:L108"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/股票池.xlsx
+++ b/股票池.xlsx
@@ -10,7 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$L$1:$L$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$O$107</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,110 +172,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>数字认证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万集科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和仁科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇金科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填权概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视源股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业绩增长原因：液晶显示主控卡业务凭借技术创新优势，快速供货优势，规模优势，品牌与客户优势和质量管理优势，不断扩大市场份额，市场占有率逐年提高，实现快速增长。公司交互智能平板业务凭借优良的产品质量，周到的客户服务，逐渐被市场接受和认可，品牌知名度不断提升，销售额和利润额显著提高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗科智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世名科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激智科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学膜领导企业，实际控制人首批入选国家“千人计划”，核心团队成员均有身后专业学术背景。量子点薄膜是大屏液晶显示器领域的发展趋势，公司拥有量子点薄膜专利并实现小批量供货。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英维克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥联电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江龙船艇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦迪科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博天科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富瀚微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇顶科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦百合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝达药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江仙通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕同科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇纳科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.业绩增长原因：第四季度原纸销售价格持续上涨及募投项目达产导致原纸产量提升，营收增长43.</t>
-  </si>
-  <si>
-    <t>数字认证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万集科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和仁科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇金科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填权概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视源股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.业绩增长原因：液晶显示主控卡业务凭借技术创新优势，快速供货优势，规模优势，品牌与客户优势和质量管理优势，不断扩大市场份额，市场占有率逐年提高，实现快速增长。公司交互智能平板业务凭借优良的产品质量，周到的客户服务，逐渐被市场接受和认可，品牌知名度不断提升，销售额和利润额显著提高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗科智能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>世名科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激智科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光学膜领导企业，实际控制人首批入选国家“千人计划”，核心团队成员均有身后专业学术背景。量子点薄膜是大屏液晶显示器领域的发展趋势，公司拥有量子点薄膜专利并实现小批量供货。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英维克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>至纯科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥联电子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江龙船艇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦迪科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>博天科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>富瀚微</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇顶科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦百合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝达药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江仙通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>裕同科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太平鸟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇纳科技</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -673,11 +670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -732,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" hidden="1">
       <c r="A2">
         <v>300600</v>
       </c>
@@ -778,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1">
       <c r="A3">
         <v>300590</v>
       </c>
@@ -826,17 +822,14 @@
         <v>300613</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>0.44400000000000001</v>
       </c>
       <c r="E4" s="1">
         <f>C4*D4</f>
-        <v>69.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1.1000000000000001</v>
@@ -846,7 +839,7 @@
       </c>
       <c r="J4" s="1">
         <f>E4/F4</f>
-        <v>62.967272727272722</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="e">
         <f>E4/G4</f>
@@ -854,7 +847,7 @@
       </c>
       <c r="L4" s="3">
         <f>J4/H4</f>
-        <v>0.31483636363636358</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="e">
         <f>K4/I4</f>
@@ -864,465 +857,454 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>603160</v>
+        <v>2841</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>97.11</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <f>C5*D5</f>
-        <v>432.1395</v>
+        <v>348</v>
       </c>
       <c r="F5" s="3">
-        <v>8.5500000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="G5">
-        <v>10.68</v>
+        <v>9.6</v>
       </c>
       <c r="H5" s="3">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1">
         <f>E5/F5</f>
-        <v>50.542631578947365</v>
+        <v>47.027027027027025</v>
       </c>
       <c r="K5" s="3">
         <f>E5/G5</f>
-        <v>40.462499999999999</v>
+        <v>36.25</v>
       </c>
       <c r="L5" s="3">
         <f>J5/H5</f>
-        <v>2.5271315789473681</v>
+        <v>0.43543543543543539</v>
       </c>
       <c r="M5" s="3">
         <f>K5/I5</f>
-        <v>2.0231249999999998</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="N5" s="3"/>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>2841</v>
+        <v>300573</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="1">
         <f>C6*D6</f>
-        <v>348</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F6" s="3">
-        <v>7.4</v>
+        <v>0.54</v>
       </c>
       <c r="G6">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="3">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="J6" s="1">
         <f>E6/F6</f>
-        <v>47.027027027027025</v>
+        <v>72.592592592592595</v>
       </c>
       <c r="K6" s="3">
         <f>E6/G6</f>
-        <v>36.25</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="L6" s="3">
         <f>J6/H6</f>
-        <v>0.43543543543543539</v>
+        <v>0.49720953830542874</v>
       </c>
       <c r="M6" s="3">
         <f>K6/I6</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="N6" s="3"/>
+        <v>1.8666666666666669</v>
+      </c>
+      <c r="N6" s="3">
+        <v>70</v>
+      </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>300573</v>
+        <v>603239</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>83.84</v>
       </c>
       <c r="D7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="1">
         <f>C7*D7</f>
-        <v>39.200000000000003</v>
+        <v>75.456000000000003</v>
       </c>
       <c r="F7" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="G7">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="3">
-        <v>146</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1">
         <f>E7/F7</f>
-        <v>72.592592592592595</v>
-      </c>
-      <c r="K7" s="3">
+        <v>50.304000000000002</v>
+      </c>
+      <c r="K7" s="3" t="e">
         <f>E7/G7</f>
-        <v>56.000000000000007</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" s="3">
         <f>J7/H7</f>
-        <v>0.49720953830542874</v>
-      </c>
-      <c r="M7" s="3">
+        <v>0.69866666666666666</v>
+      </c>
+      <c r="M7" s="3" t="e">
         <f>K7/I7</f>
-        <v>1.8666666666666669</v>
-      </c>
-      <c r="N7" s="3">
-        <v>70</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>603239</v>
+        <v>603165</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>83.84</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="E8" s="1">
         <f>C8*D8</f>
-        <v>75.456000000000003</v>
+        <v>51.371500000000005</v>
       </c>
       <c r="F8" s="3">
-        <v>1.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="G8">
+        <v>1.56</v>
       </c>
       <c r="H8" s="3">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
       </c>
       <c r="J8" s="1">
         <f>E8/F8</f>
-        <v>50.304000000000002</v>
-      </c>
-      <c r="K8" s="3" t="e">
+        <v>42.809583333333336</v>
+      </c>
+      <c r="K8" s="3">
         <f>E8/G8</f>
-        <v>#DIV/0!</v>
+        <v>32.930448717948721</v>
       </c>
       <c r="L8" s="3">
         <f>J8/H8</f>
-        <v>0.69866666666666666</v>
-      </c>
-      <c r="M8" s="3" t="e">
+        <v>0.75104532163742699</v>
+      </c>
+      <c r="M8" s="3">
         <f>K8/I8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="3"/>
+        <v>1.0976816239316241</v>
+      </c>
+      <c r="N8" s="3">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>603165</v>
+        <v>603585</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>40.450000000000003</v>
+        <v>71.59</v>
       </c>
       <c r="D9">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <f>C9*D9</f>
-        <v>51.371500000000005</v>
+        <v>71.59</v>
       </c>
       <c r="F9" s="3">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G9">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="H9" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>30</v>
       </c>
       <c r="J9" s="1">
         <f>E9/F9</f>
-        <v>42.809583333333336</v>
+        <v>39.772222222222226</v>
       </c>
       <c r="K9" s="3">
         <f>E9/G9</f>
-        <v>32.930448717948721</v>
+        <v>30.594017094017097</v>
       </c>
       <c r="L9" s="3">
         <f>J9/H9</f>
-        <v>0.75104532163742699</v>
+        <v>0.79544444444444451</v>
       </c>
       <c r="M9" s="3">
         <f>K9/I9</f>
-        <v>1.0976816239316241</v>
+        <v>1.0198005698005699</v>
       </c>
       <c r="N9" s="3">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10">
-        <v>603585</v>
+      <c r="A10" s="2">
+        <v>2821</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>71.59</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E10" s="1">
         <f>C10*D10</f>
-        <v>71.59</v>
+        <v>146.89999999999998</v>
       </c>
       <c r="F10" s="3">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="H10" s="3">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>30</v>
       </c>
       <c r="J10" s="1">
         <f>E10/F10</f>
-        <v>39.772222222222226</v>
+        <v>58.759999999999991</v>
       </c>
       <c r="K10" s="3">
         <f>E10/G10</f>
-        <v>30.594017094017097</v>
+        <v>44.515151515151508</v>
       </c>
       <c r="L10" s="3">
         <f>J10/H10</f>
-        <v>0.79544444444444451</v>
+        <v>0.91812499999999986</v>
       </c>
       <c r="M10" s="3">
         <f>K10/I10</f>
-        <v>1.0198005698005699</v>
+        <v>1.4838383838383835</v>
       </c>
       <c r="N10" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2">
-        <v>2821</v>
+      <c r="A11">
+        <v>603579</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D11">
-        <v>1.1299999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="1">
         <f>C11*D11</f>
-        <v>146.89999999999998</v>
+        <v>86.1</v>
       </c>
       <c r="F11" s="3">
-        <v>2.5</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H11" s="3">
-        <v>64</v>
+        <v>44.8</v>
       </c>
       <c r="I11">
         <v>30</v>
       </c>
       <c r="J11" s="1">
         <f>E11/F11</f>
-        <v>58.759999999999991</v>
+        <v>41.594202898550726</v>
       </c>
       <c r="K11" s="3">
         <f>E11/G11</f>
-        <v>44.515151515151508</v>
+        <v>33.115384615384613</v>
       </c>
       <c r="L11" s="3">
         <f>J11/H11</f>
-        <v>0.91812499999999986</v>
+        <v>0.92844202898550732</v>
       </c>
       <c r="M11" s="3">
         <f>K11/I11</f>
-        <v>1.4838383838383835</v>
+        <v>1.1038461538461537</v>
       </c>
       <c r="N11" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>603579</v>
+        <v>2831</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>123</v>
+        <v>68.8</v>
       </c>
       <c r="D12">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <f>C12*D12</f>
-        <v>86.1</v>
+        <v>275.2</v>
       </c>
       <c r="F12" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G12">
-        <v>2.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H12" s="3">
-        <v>44.8</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1">
         <f>E12/F12</f>
-        <v>41.594202898550726</v>
-      </c>
-      <c r="K12" s="3">
+        <v>31.632183908045977</v>
+      </c>
+      <c r="K12" s="3" t="e">
         <f>E12/G12</f>
-        <v>33.115384615384613</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L12" s="3">
         <f>J12/H12</f>
-        <v>0.92844202898550732</v>
-      </c>
-      <c r="M12" s="3">
+        <v>0.9885057471264368</v>
+      </c>
+      <c r="M12" s="3" t="e">
         <f>K12/I12</f>
-        <v>1.1038461538461537</v>
-      </c>
-      <c r="N12" s="3">
-        <v>85</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>603690</v>
+        <v>603660</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="1">
         <f>C13*D13</f>
-        <v>57.2</v>
-      </c>
-      <c r="F13">
-        <v>0.44</v>
-      </c>
-      <c r="G13">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H13">
-        <v>140</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
+        <v>82.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>40</v>
       </c>
       <c r="J13" s="1">
         <f>E13/F13</f>
-        <v>130</v>
-      </c>
-      <c r="K13" s="3">
+        <v>48.529411764705884</v>
+      </c>
+      <c r="K13" s="3" t="e">
         <f>E13/G13</f>
-        <v>100.35087719298247</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L13" s="3">
         <f>J13/H13</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="M13" s="3">
+        <v>1.2132352941176472</v>
+      </c>
+      <c r="M13" s="3" t="e">
         <f>K13/I13</f>
-        <v>3.3450292397660824</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>2831</v>
+        <v>603360</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>68.8</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="E14" s="1">
         <f>C14*D14</f>
-        <v>275.2</v>
+        <v>49.21</v>
       </c>
       <c r="F14" s="3">
-        <v>8.6999999999999993</v>
+        <v>0.9</v>
       </c>
       <c r="H14" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1">
         <f>E14/F14</f>
-        <v>31.632183908045977</v>
+        <v>54.677777777777777</v>
       </c>
       <c r="K14" s="3" t="e">
         <f>E14/G14</f>
@@ -1330,40 +1312,45 @@
       </c>
       <c r="L14" s="3">
         <f>J14/H14</f>
-        <v>0.9885057471264368</v>
+        <v>1.3669444444444445</v>
       </c>
       <c r="M14" s="3" t="e">
         <f>K14/I14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>603660</v>
+        <v>603603</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>20.8</v>
       </c>
       <c r="D15">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <f>C15*D15</f>
-        <v>82.5</v>
+        <v>83.2</v>
       </c>
       <c r="F15" s="3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1">
         <f>E15/F15</f>
-        <v>48.529411764705884</v>
+        <v>55.466666666666669</v>
       </c>
       <c r="K15" s="3" t="e">
         <f>E15/G15</f>
@@ -1371,7 +1358,7 @@
       </c>
       <c r="L15" s="3">
         <f>J15/H15</f>
-        <v>1.2132352941176472</v>
+        <v>1.848888888888889</v>
       </c>
       <c r="M15" s="3" t="e">
         <f>K15/I15</f>
@@ -1379,82 +1366,77 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16">
-        <v>603360</v>
+        <v>603039</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>79.8</v>
       </c>
       <c r="D16">
-        <v>1.33</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E16" s="1">
         <f>C16*D16</f>
-        <v>49.21</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="3">
-        <v>40</v>
-      </c>
-      <c r="J16" s="1">
+        <v>53.226599999999998</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="1" t="e">
         <f>E16/F16</f>
-        <v>54.677777777777777</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K16" s="3" t="e">
         <f>E16/G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="3" t="e">
         <f>J16/H16</f>
-        <v>1.3669444444444445</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="3" t="e">
         <f>K16/I16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="3">
-        <v>60</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>603039</v>
+        <v>300568</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>79.8</v>
+        <v>71.5</v>
       </c>
       <c r="D17">
-        <v>0.66700000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="E17" s="1">
         <f>C17*D17</f>
-        <v>53.226599999999998</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="1" t="e">
+        <v>85.8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="H17" s="3">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1">
         <f>E17/F17</f>
-        <v>#DIV/0!</v>
+        <v>57.972972972972968</v>
       </c>
       <c r="K17" s="3" t="e">
         <f>E17/G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="3" t="e">
+      <c r="L17" s="3">
         <f>J17/H17</f>
-        <v>#DIV/0!</v>
+        <v>1.8700959023539667</v>
       </c>
       <c r="M17" s="3" t="e">
         <f>K17/I17</f>
@@ -1464,71 +1446,82 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>603603</v>
+        <v>603929</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>20.8</v>
+        <v>32.29</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2.13</v>
       </c>
       <c r="E18" s="1">
         <f>C18*D18</f>
-        <v>83.2</v>
+        <v>68.777699999999996</v>
       </c>
       <c r="F18" s="3">
-        <v>1.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="G18">
+        <v>2.1</v>
       </c>
       <c r="H18" s="3">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
       </c>
       <c r="J18" s="1">
         <f>E18/F18</f>
-        <v>55.466666666666669</v>
-      </c>
-      <c r="K18" s="3" t="e">
+        <v>38.209833333333329</v>
+      </c>
+      <c r="K18" s="3">
         <f>E18/G18</f>
-        <v>#DIV/0!</v>
+        <v>32.751285714285714</v>
       </c>
       <c r="L18" s="3">
         <f>J18/H18</f>
-        <v>1.848888888888889</v>
-      </c>
-      <c r="M18" s="3" t="e">
+        <v>1.9104916666666665</v>
+      </c>
+      <c r="M18" s="3">
         <f>K18/I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>1.6375642857142858</v>
+      </c>
+      <c r="N18" s="3">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>300568</v>
+        <v>300579</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>71.5</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="1">
         <f>C19*D19</f>
-        <v>85.8</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
-        <v>1.48</v>
+        <v>0.72</v>
       </c>
       <c r="H19" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1">
         <f>E19/F19</f>
-        <v>57.972972972972968</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K19" s="3" t="e">
         <f>E19/G19</f>
@@ -1536,7 +1529,7 @@
       </c>
       <c r="L19" s="3">
         <f>J19/H19</f>
-        <v>1.8700959023539667</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="M19" s="3" t="e">
         <f>K19/I19</f>
@@ -1546,82 +1539,73 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>603929</v>
+        <v>603203</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>32.29</v>
+        <v>59.41</v>
       </c>
       <c r="D20">
-        <v>2.13</v>
+        <v>0.92</v>
       </c>
       <c r="E20" s="1">
         <f>C20*D20</f>
-        <v>68.777699999999996</v>
+        <v>54.657199999999996</v>
       </c>
       <c r="F20" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="G20">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>20</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1">
         <f>E20/F20</f>
-        <v>38.209833333333329</v>
-      </c>
-      <c r="K20" s="3">
+        <v>54.657199999999996</v>
+      </c>
+      <c r="K20" s="3" t="e">
         <f>E20/G20</f>
-        <v>32.751285714285714</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L20" s="3">
         <f>J20/H20</f>
-        <v>1.9104916666666665</v>
-      </c>
-      <c r="M20" s="3">
+        <v>2.1021999999999998</v>
+      </c>
+      <c r="M20" s="3" t="e">
         <f>K20/I20</f>
-        <v>1.6375642857142858</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N20" s="3">
-        <v>60</v>
-      </c>
-      <c r="O20" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>300579</v>
+        <v>300609</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>30.34</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <f>C21*D21</f>
-        <v>48</v>
+        <v>30.34</v>
       </c>
       <c r="F21" s="3">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="H21" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1">
         <f>E21/F21</f>
-        <v>66.666666666666671</v>
+        <v>63.208333333333336</v>
       </c>
       <c r="K21" s="3" t="e">
         <f>E21/G21</f>
@@ -1629,7 +1613,7 @@
       </c>
       <c r="L21" s="3">
         <f>J21/H21</f>
-        <v>2.0833333333333335</v>
+        <v>2.1069444444444447</v>
       </c>
       <c r="M21" s="3" t="e">
         <f>K21/I21</f>
@@ -1639,30 +1623,30 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>603203</v>
+        <v>300585</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>59.41</v>
+        <v>45.8</v>
       </c>
       <c r="D22">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="1">
         <f>C22*D22</f>
-        <v>54.657199999999996</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>26</v>
+        <v>36.64</v>
+      </c>
+      <c r="F22">
+        <v>0.52</v>
+      </c>
+      <c r="H22">
+        <v>31</v>
       </c>
       <c r="J22" s="1">
         <f>E22/F22</f>
-        <v>54.657199999999996</v>
+        <v>70.461538461538467</v>
       </c>
       <c r="K22" s="3" t="e">
         <f>E22/G22</f>
@@ -1670,42 +1654,39 @@
       </c>
       <c r="L22" s="3">
         <f>J22/H22</f>
-        <v>2.1021999999999998</v>
+        <v>2.272952853598015</v>
       </c>
       <c r="M22" s="3" t="e">
         <f>K22/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="3">
-        <v>70</v>
-      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>300609</v>
+        <v>300595</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>30.34</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="E23" s="1">
         <f>C23*D23</f>
-        <v>30.34</v>
+        <v>76.160000000000011</v>
       </c>
       <c r="F23" s="3">
-        <v>0.48</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J23" s="1">
         <f>E23/F23</f>
-        <v>63.208333333333336</v>
+        <v>66.807017543859658</v>
       </c>
       <c r="K23" s="3" t="e">
         <f>E23/G23</f>
@@ -1713,40 +1694,45 @@
       </c>
       <c r="L23" s="3">
         <f>J23/H23</f>
-        <v>2.1069444444444447</v>
+        <v>2.3859649122807021</v>
       </c>
       <c r="M23" s="3" t="e">
         <f>K23/I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>85</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>300585</v>
+        <v>603626</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>45.8</v>
+        <v>46.25</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>2.11</v>
       </c>
       <c r="E24" s="1">
         <f>C24*D24</f>
-        <v>36.64</v>
-      </c>
-      <c r="F24">
-        <v>0.52</v>
-      </c>
-      <c r="H24">
-        <v>31</v>
+        <v>97.587499999999991</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20</v>
       </c>
       <c r="J24" s="1">
         <f>E24/F24</f>
-        <v>70.461538461538467</v>
+        <v>48.793749999999996</v>
       </c>
       <c r="K24" s="3" t="e">
         <f>E24/G24</f>
@@ -1754,39 +1740,42 @@
       </c>
       <c r="L24" s="3">
         <f>J24/H24</f>
-        <v>2.272952853598015</v>
+        <v>2.4396874999999998</v>
       </c>
       <c r="M24" s="3" t="e">
         <f>K24/I24</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N24" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>300595</v>
+        <v>300596</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>112</v>
+        <v>42.8</v>
       </c>
       <c r="D25">
-        <v>0.68</v>
+        <v>1.2</v>
       </c>
       <c r="E25" s="1">
         <f>C25*D25</f>
-        <v>76.160000000000011</v>
+        <v>51.359999999999992</v>
       </c>
       <c r="F25" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H25" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1">
         <f>E25/F25</f>
-        <v>66.807017543859658</v>
+        <v>57.066666666666656</v>
       </c>
       <c r="K25" s="3" t="e">
         <f>E25/G25</f>
@@ -1794,88 +1783,89 @@
       </c>
       <c r="L25" s="3">
         <f>J25/H25</f>
-        <v>2.3859649122807021</v>
+        <v>2.4811594202898548</v>
       </c>
       <c r="M25" s="3" t="e">
         <f>K25/I25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="3">
-        <v>85</v>
-      </c>
-      <c r="O25" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>603626</v>
+        <v>603160</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C26">
-        <v>46.25</v>
+        <v>97.11</v>
       </c>
       <c r="D26">
-        <v>2.11</v>
+        <v>4.45</v>
       </c>
       <c r="E26" s="1">
         <f>C26*D26</f>
-        <v>97.587499999999991</v>
+        <v>432.1395</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G26">
+        <v>10.68</v>
       </c>
       <c r="H26" s="3">
         <v>20</v>
       </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
       <c r="J26" s="1">
         <f>E26/F26</f>
-        <v>48.793749999999996</v>
-      </c>
-      <c r="K26" s="3" t="e">
+        <v>50.542631578947365</v>
+      </c>
+      <c r="K26" s="3">
         <f>E26/G26</f>
-        <v>#DIV/0!</v>
+        <v>40.462499999999999</v>
       </c>
       <c r="L26" s="3">
         <f>J26/H26</f>
-        <v>2.4396874999999998</v>
-      </c>
-      <c r="M26" s="3" t="e">
+        <v>2.5271315789473681</v>
+      </c>
+      <c r="M26" s="3">
         <f>K26/I26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="3">
-        <v>60</v>
-      </c>
+        <v>2.0231249999999998</v>
+      </c>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>300596</v>
+        <v>603313</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>42.8</v>
+        <v>35.6</v>
       </c>
       <c r="D27">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E27" s="1">
         <f>C27*D27</f>
-        <v>51.359999999999992</v>
+        <v>85.44</v>
       </c>
       <c r="F27" s="3">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H27" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1">
         <f>E27/F27</f>
-        <v>57.066666666666656</v>
+        <v>47.466666666666661</v>
       </c>
       <c r="K27" s="3" t="e">
         <f>E27/G27</f>
@@ -1883,42 +1873,40 @@
       </c>
       <c r="L27" s="3">
         <f>J27/H27</f>
-        <v>2.4811594202898548</v>
+        <v>3.1644444444444439</v>
       </c>
       <c r="M27" s="3" t="e">
         <f>K27/I27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="3">
-        <v>60</v>
-      </c>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>603313</v>
+        <v>300543</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>35.6</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="E28" s="1">
         <f>C28*D28</f>
-        <v>85.44</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3">
-        <v>1.8</v>
+        <v>0.76</v>
       </c>
       <c r="H28" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1">
         <f>E28/F28</f>
-        <v>47.466666666666661</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="K28" s="3" t="e">
         <f>E28/G28</f>
@@ -1926,7 +1914,7 @@
       </c>
       <c r="L28" s="3">
         <f>J28/H28</f>
-        <v>3.1644444444444439</v>
+        <v>3.5885167464114831</v>
       </c>
       <c r="M28" s="3" t="e">
         <f>K28/I28</f>
@@ -1936,30 +1924,30 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>300543</v>
+        <v>603990</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E29" s="1">
         <f>C29*D29</f>
-        <v>60</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="F29" s="3">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="H29" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1">
         <f>E29/F29</f>
-        <v>78.94736842105263</v>
+        <v>102</v>
       </c>
       <c r="K29" s="3" t="e">
         <f>E29/G29</f>
@@ -1967,7 +1955,7 @@
       </c>
       <c r="L29" s="3">
         <f>J29/H29</f>
-        <v>3.5885167464114831</v>
+        <v>4.4347826086956523</v>
       </c>
       <c r="M29" s="3" t="e">
         <f>K29/I29</f>
@@ -1977,30 +1965,30 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>603990</v>
+        <v>300522</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>78.78</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="E30" s="1">
         <f>C30*D30</f>
-        <v>40.800000000000004</v>
+        <v>52.546260000000004</v>
       </c>
       <c r="F30" s="3">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="H30" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1">
         <f>E30/F30</f>
-        <v>102</v>
+        <v>80.840400000000002</v>
       </c>
       <c r="K30" s="3" t="e">
         <f>E30/G30</f>
@@ -2008,7 +1996,7 @@
       </c>
       <c r="L30" s="3">
         <f>J30/H30</f>
-        <v>4.4347826086956523</v>
+        <v>4.4911333333333339</v>
       </c>
       <c r="M30" s="3" t="e">
         <f>K30/I30</f>
@@ -2018,30 +2006,30 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>300522</v>
+        <v>300561</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>78.78</v>
+        <v>82.5</v>
       </c>
       <c r="D31">
-        <v>0.66700000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="E31" s="1">
         <f>C31*D31</f>
-        <v>52.546260000000004</v>
+        <v>69.3</v>
       </c>
       <c r="F31" s="3">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="H31" s="3">
         <v>18</v>
       </c>
       <c r="J31" s="1">
         <f>E31/F31</f>
-        <v>80.840400000000002</v>
+        <v>92.399999999999991</v>
       </c>
       <c r="K31" s="3" t="e">
         <f>E31/G31</f>
@@ -2049,40 +2037,43 @@
       </c>
       <c r="L31" s="3">
         <f>J31/H31</f>
-        <v>4.4911333333333339</v>
+        <v>5.1333333333333329</v>
       </c>
       <c r="M31" s="3" t="e">
         <f>K31/I31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="3"/>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>300561</v>
+        <v>300546</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>0.84</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="E32" s="1">
         <f>C32*D32</f>
-        <v>69.3</v>
+        <v>53.300000000000004</v>
       </c>
       <c r="F32" s="3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1">
         <f>E32/F32</f>
-        <v>92.399999999999991</v>
+        <v>88.833333333333343</v>
       </c>
       <c r="K32" s="3" t="e">
         <f>E32/G32</f>
@@ -2090,43 +2081,42 @@
       </c>
       <c r="L32" s="3">
         <f>J32/H32</f>
-        <v>5.1333333333333329</v>
+        <v>5.9222222222222225</v>
       </c>
       <c r="M32" s="3" t="e">
         <f>K32/I32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" t="s">
-        <v>42</v>
+      <c r="N32" s="3">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>300546</v>
+        <v>300589</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>44.5</v>
       </c>
       <c r="D33">
-        <v>0.53300000000000003</v>
+        <v>0.87</v>
       </c>
       <c r="E33" s="1">
         <f>C33*D33</f>
-        <v>53.300000000000004</v>
+        <v>38.714999999999996</v>
       </c>
       <c r="F33" s="3">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="H33" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1">
         <f>E33/F33</f>
-        <v>88.833333333333343</v>
+        <v>104.63513513513513</v>
       </c>
       <c r="K33" s="3" t="e">
         <f>E33/G33</f>
@@ -2134,42 +2124,40 @@
       </c>
       <c r="L33" s="3">
         <f>J33/H33</f>
-        <v>5.9222222222222225</v>
+        <v>7.4739382239382239</v>
       </c>
       <c r="M33" s="3" t="e">
         <f>K33/I33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="3">
-        <v>80</v>
-      </c>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>300589</v>
+        <v>300566</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>44.5</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="D34">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="E34" s="1">
         <f>C34*D34</f>
-        <v>38.714999999999996</v>
+        <v>52.167999999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>0.37</v>
+        <v>0.63</v>
       </c>
       <c r="H34" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1">
         <f>E34/F34</f>
-        <v>104.63513513513513</v>
+        <v>82.806349206349211</v>
       </c>
       <c r="K34" s="3" t="e">
         <f>E34/G34</f>
@@ -2177,40 +2165,45 @@
       </c>
       <c r="L34" s="3">
         <f>J34/H34</f>
-        <v>7.4739382239382239</v>
+        <v>8.2806349206349203</v>
       </c>
       <c r="M34" s="3" t="e">
         <f>K34/I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="3">
+        <v>80</v>
+      </c>
+      <c r="O34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>300566</v>
+        <v>2837</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>65.209999999999994</v>
+        <v>56.31</v>
       </c>
       <c r="D35">
         <v>0.8</v>
       </c>
       <c r="E35" s="1">
         <f>C35*D35</f>
-        <v>52.167999999999999</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="H35" s="3">
-        <v>10</v>
+        <v>45.048000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.72</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
       </c>
       <c r="J35" s="1">
         <f>E35/F35</f>
-        <v>82.806349206349211</v>
+        <v>62.56666666666667</v>
       </c>
       <c r="K35" s="3" t="e">
         <f>E35/G35</f>
@@ -2218,89 +2211,84 @@
       </c>
       <c r="L35" s="3">
         <f>J35/H35</f>
-        <v>8.2806349206349203</v>
+        <v>8.9380952380952383</v>
       </c>
       <c r="M35" s="3" t="e">
         <f>K35/I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="3">
-        <v>80</v>
-      </c>
-      <c r="O35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:15" hidden="1">
       <c r="A36">
-        <v>2837</v>
+        <v>603877</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>56.31</v>
+        <v>39.35</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>4.75</v>
       </c>
       <c r="E36" s="1">
         <f>C36*D36</f>
-        <v>45.048000000000002</v>
-      </c>
-      <c r="F36">
-        <v>0.72</v>
-      </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1">
+        <v>186.91249999999999</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="1" t="e">
         <f>E36/F36</f>
-        <v>62.56666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K36" s="3" t="e">
         <f>E36/G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="3" t="e">
         <f>J36/H36</f>
-        <v>8.9380952380952383</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M36" s="3" t="e">
         <f>K36/I36</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>603877</v>
+        <v>300552</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>39.35</v>
+        <v>50.7</v>
       </c>
       <c r="D37">
-        <v>4.75</v>
+        <v>1.07</v>
       </c>
       <c r="E37" s="1">
         <f>C37*D37</f>
-        <v>186.91249999999999</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="J37" s="1" t="e">
+        <v>54.249000000000009</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H37" s="3">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1">
         <f>E37/F37</f>
-        <v>#DIV/0!</v>
+        <v>79.080174927113717</v>
       </c>
       <c r="K37" s="3" t="e">
         <f>E37/G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="3" t="e">
+      <c r="L37" s="3">
         <f>J37/H37</f>
-        <v>#DIV/0!</v>
+        <v>11.297167846730531</v>
       </c>
       <c r="M37" s="3" t="e">
         <f>K37/I37</f>
@@ -2308,40 +2296,24 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
-        <v>300552</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>50.7</v>
-      </c>
-      <c r="D38">
-        <v>1.07</v>
-      </c>
+    <row r="38" spans="1:15" hidden="1">
       <c r="E38" s="1">
         <f>C38*D38</f>
-        <v>54.249000000000009</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="H38" s="3">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="1" t="e">
         <f>E38/F38</f>
-        <v>79.080174927113717</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K38" s="3" t="e">
         <f>E38/G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="3" t="e">
         <f>J38/H38</f>
-        <v>11.297167846730531</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M38" s="3" t="e">
         <f>K38/I38</f>
@@ -2374,24 +2346,40 @@
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:15" hidden="1">
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>300558</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>70.5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
       <c r="E40" s="1">
         <f>C40*D40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="1" t="e">
+        <v>282</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1">
         <f>E40/F40</f>
-        <v>#DIV/0!</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="K40" s="3" t="e">
         <f>E40/G40</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="3" t="e">
+      <c r="L40" s="3">
         <f>J40/H40</f>
-        <v>#DIV/0!</v>
+        <v>13.055555555555555</v>
       </c>
       <c r="M40" s="3" t="e">
         <f>K40/I40</f>
@@ -2401,30 +2389,30 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>300558</v>
+        <v>603928</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41">
-        <v>70.5</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
         <f>C41*D41</f>
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="F41" s="3">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J41" s="1">
         <f>E41/F41</f>
-        <v>78.333333333333329</v>
+        <v>54</v>
       </c>
       <c r="K41" s="3" t="e">
         <f>E41/G41</f>
@@ -2432,7 +2420,7 @@
       </c>
       <c r="L41" s="3">
         <f>J41/H41</f>
-        <v>13.055555555555555</v>
+        <v>54</v>
       </c>
       <c r="M41" s="3" t="e">
         <f>K41/I41</f>
@@ -2442,30 +2430,30 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>603928</v>
+        <v>300550</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>62.5</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="E42" s="1">
         <f>C42*D42</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="J42" s="1">
         <f>E42/F42</f>
-        <v>54</v>
+        <v>96.525096525096515</v>
       </c>
       <c r="K42" s="3" t="e">
         <f>E42/G42</f>
@@ -2473,7 +2461,7 @@
       </c>
       <c r="L42" s="3">
         <f>J42/H42</f>
-        <v>54</v>
+        <v>96.525096525096515</v>
       </c>
       <c r="M42" s="3" t="e">
         <f>K42/I42</f>
@@ -2481,1480 +2469,1477 @@
       </c>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
-        <v>300550</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>62.5</v>
-      </c>
-      <c r="D43">
-        <v>0.8</v>
-      </c>
+    <row r="43" spans="1:15" hidden="1">
       <c r="E43" s="1">
         <f>C43*D43</f>
-        <v>50</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="e">
         <f>E43/F43</f>
-        <v>96.525096525096515</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K43" s="3" t="e">
         <f>E43/G43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="e">
         <f>J43/H43</f>
-        <v>96.525096525096515</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M43" s="3" t="e">
         <f>K43/I43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:15" hidden="1">
       <c r="E44" s="1">
-        <f t="shared" ref="E2:E65" si="0">C44*D44</f>
+        <f>C44*D44</f>
         <v>0</v>
       </c>
       <c r="J44" s="1" t="e">
-        <f t="shared" ref="J2:J65" si="1">E44/F44</f>
+        <f>E44/F44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="3" t="e">
-        <f t="shared" ref="K2:K65" si="2">E44/G44</f>
+        <f>E44/G44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L44" s="3" t="e">
-        <f t="shared" ref="L2:L65" si="3">J44/H44</f>
+        <f>J44/H44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="3" t="e">
-        <f t="shared" ref="M2:M65" si="4">K44/I44</f>
+        <f>K44/I44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:15" hidden="1">
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
+        <f>C45*D45</f>
         <v>0</v>
       </c>
       <c r="J45" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E45/F45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E45/G45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L45" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J45/H45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M45" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K45/I45</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:15" hidden="1">
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
+        <f>C46*D46</f>
         <v>0</v>
       </c>
       <c r="J46" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E46/F46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E46/G46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L46" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J46/H46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M46" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K46/I46</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:15" hidden="1">
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
+        <f>C47*D47</f>
         <v>0</v>
       </c>
       <c r="J47" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E47/F47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E47/G47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J47/H47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K47/I47</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:15" hidden="1">
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
+        <f>C48*D48</f>
         <v>0</v>
       </c>
       <c r="J48" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E48/F48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E48/G48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L48" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J48/H48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M48" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K48/I48</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="5:13" hidden="1">
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
+        <f>C49*D49</f>
         <v>0</v>
       </c>
       <c r="J49" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E49/F49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E49/G49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J49/H49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M49" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K49/I49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="5:13" hidden="1">
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
+        <f>C50*D50</f>
         <v>0</v>
       </c>
       <c r="J50" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E50/F50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E50/G50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L50" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J50/H50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M50" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K50/I50</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="5:13" hidden="1">
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
+        <f>C51*D51</f>
         <v>0</v>
       </c>
       <c r="J51" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E51/F51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E51/G51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L51" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J51/H51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M51" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K51/I51</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="5:13" hidden="1">
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
+        <f>C52*D52</f>
         <v>0</v>
       </c>
       <c r="J52" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E52/F52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E52/G52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L52" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J52/H52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K52/I52</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="5:13" hidden="1">
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
+        <f>C53*D53</f>
         <v>0</v>
       </c>
       <c r="J53" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E53/F53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E53/G53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L53" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J53/H53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K53/I53</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="5:13" hidden="1">
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
+        <f>C54*D54</f>
         <v>0</v>
       </c>
       <c r="J54" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E54/F54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E54/G54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L54" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J54/H54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M54" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K54/I54</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="5:13" hidden="1">
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
+        <f>C55*D55</f>
         <v>0</v>
       </c>
       <c r="J55" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E55/F55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E55/G55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L55" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J55/H55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K55/I55</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="5:13" hidden="1">
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
+        <f>C56*D56</f>
         <v>0</v>
       </c>
       <c r="J56" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E56/F56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E56/G56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L56" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J56/H56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K56/I56</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="5:13" hidden="1">
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
+        <f>C57*D57</f>
         <v>0</v>
       </c>
       <c r="J57" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E57/F57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E57/G57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L57" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J57/H57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M57" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K57/I57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="5:13" hidden="1">
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
+        <f>C58*D58</f>
         <v>0</v>
       </c>
       <c r="J58" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E58/F58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E58/G58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L58" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J58/H58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M58" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K58/I58</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="5:13" hidden="1">
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
+        <f>C59*D59</f>
         <v>0</v>
       </c>
       <c r="J59" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E59/F59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E59/G59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L59" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J59/H59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M59" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K59/I59</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="5:13" hidden="1">
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
+        <f>C60*D60</f>
         <v>0</v>
       </c>
       <c r="J60" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E60/F60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E60/G60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L60" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J60/H60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M60" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K60/I60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="5:13" hidden="1">
       <c r="E61" s="1">
-        <f t="shared" si="0"/>
+        <f>C61*D61</f>
         <v>0</v>
       </c>
       <c r="J61" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E61/F61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E61/G61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J61/H61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K61/I61</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="5:13" hidden="1">
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
+        <f>C62*D62</f>
         <v>0</v>
       </c>
       <c r="J62" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E62/F62</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E62/G62</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J62/H62</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K62/I62</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="5:13" hidden="1">
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
+        <f>C63*D63</f>
         <v>0</v>
       </c>
       <c r="J63" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E63/F63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E63/G63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J63/H63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K63/I63</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="5:13" hidden="1">
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
+        <f>C64*D64</f>
         <v>0</v>
       </c>
       <c r="J64" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E64/F64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K64" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E64/G64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L64" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J64/H64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K64/I64</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="5:13" hidden="1">
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
+        <f>C65*D65</f>
         <v>0</v>
       </c>
       <c r="J65" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>E65/F65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K65" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>E65/G65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L65" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>J65/H65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M65" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>K65/I65</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="5:13" hidden="1">
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E108" si="5">C66*D66</f>
+        <f>C66*D66</f>
         <v>0</v>
       </c>
       <c r="J66" s="1" t="e">
-        <f t="shared" ref="J66:J108" si="6">E66/F66</f>
+        <f>E66/F66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K66" s="3" t="e">
-        <f t="shared" ref="K66:K107" si="7">E66/G66</f>
+        <f>E66/G66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L66" s="3" t="e">
-        <f t="shared" ref="L66:L108" si="8">J66/H66</f>
+        <f>J66/H66</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M66" s="3" t="e">
-        <f t="shared" ref="M66:M108" si="9">K66/I66</f>
+        <f>K66/I66</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="5:13" hidden="1">
       <c r="E67" s="1">
-        <f t="shared" si="5"/>
+        <f>C67*D67</f>
         <v>0</v>
       </c>
       <c r="J67" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E67/F67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K67" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E67/G67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L67" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J67/H67</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M67" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K67/I67</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="5:13" hidden="1">
       <c r="E68" s="1">
-        <f t="shared" si="5"/>
+        <f>C68*D68</f>
         <v>0</v>
       </c>
       <c r="J68" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E68/F68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E68/G68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L68" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J68/H68</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M68" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K68/I68</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="5:13" hidden="1">
       <c r="E69" s="1">
-        <f t="shared" si="5"/>
+        <f>C69*D69</f>
         <v>0</v>
       </c>
       <c r="J69" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E69/F69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K69" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E69/G69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L69" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J69/H69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M69" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K69/I69</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="5:13" hidden="1">
       <c r="E70" s="1">
-        <f t="shared" si="5"/>
+        <f>C70*D70</f>
         <v>0</v>
       </c>
       <c r="J70" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E70/F70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K70" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E70/G70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L70" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J70/H70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M70" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K70/I70</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="5:13" hidden="1">
       <c r="E71" s="1">
-        <f t="shared" si="5"/>
+        <f>C71*D71</f>
         <v>0</v>
       </c>
       <c r="J71" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E71/F71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K71" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E71/G71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L71" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J71/H71</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M71" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K71/I71</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="5:13" hidden="1">
       <c r="E72" s="1">
-        <f t="shared" si="5"/>
+        <f>C72*D72</f>
         <v>0</v>
       </c>
       <c r="J72" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E72/F72</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K72" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E72/G72</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L72" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J72/H72</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M72" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K72/I72</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="5:13" hidden="1">
       <c r="E73" s="1">
-        <f t="shared" si="5"/>
+        <f>C73*D73</f>
         <v>0</v>
       </c>
       <c r="J73" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E73/F73</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K73" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E73/G73</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L73" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J73/H73</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M73" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K73/I73</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="5:13" hidden="1">
       <c r="E74" s="1">
-        <f t="shared" si="5"/>
+        <f>C74*D74</f>
         <v>0</v>
       </c>
       <c r="J74" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E74/F74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K74" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E74/G74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L74" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J74/H74</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M74" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K74/I74</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="5:13" hidden="1">
       <c r="E75" s="1">
-        <f t="shared" si="5"/>
+        <f>C75*D75</f>
         <v>0</v>
       </c>
       <c r="J75" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E75/F75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K75" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E75/G75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L75" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J75/H75</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M75" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K75/I75</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="5:13" hidden="1">
       <c r="E76" s="1">
-        <f t="shared" si="5"/>
+        <f>C76*D76</f>
         <v>0</v>
       </c>
       <c r="J76" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E76/F76</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K76" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E76/G76</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L76" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J76/H76</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M76" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K76/I76</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="5:13" hidden="1">
       <c r="E77" s="1">
-        <f t="shared" si="5"/>
+        <f>C77*D77</f>
         <v>0</v>
       </c>
       <c r="J77" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E77/F77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K77" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E77/G77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L77" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J77/H77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M77" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K77/I77</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="5:13" hidden="1">
       <c r="E78" s="1">
-        <f t="shared" si="5"/>
+        <f>C78*D78</f>
         <v>0</v>
       </c>
       <c r="J78" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E78/F78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K78" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E78/G78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L78" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J78/H78</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M78" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K78/I78</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="5:13" hidden="1">
       <c r="E79" s="1">
-        <f t="shared" si="5"/>
+        <f>C79*D79</f>
         <v>0</v>
       </c>
       <c r="J79" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E79/F79</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E79/G79</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L79" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J79/H79</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M79" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K79/I79</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="5:13" hidden="1">
       <c r="E80" s="1">
-        <f t="shared" si="5"/>
+        <f>C80*D80</f>
         <v>0</v>
       </c>
       <c r="J80" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E80/F80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K80" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E80/G80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L80" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J80/H80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M80" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K80/I80</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="5:13" hidden="1">
       <c r="E81" s="1">
-        <f t="shared" si="5"/>
+        <f>C81*D81</f>
         <v>0</v>
       </c>
       <c r="J81" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E81/F81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E81/G81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L81" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J81/H81</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K81/I81</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="5:13" hidden="1">
       <c r="E82" s="1">
-        <f t="shared" si="5"/>
+        <f>C82*D82</f>
         <v>0</v>
       </c>
       <c r="J82" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E82/F82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K82" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E82/G82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L82" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J82/H82</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M82" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K82/I82</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="5:13" hidden="1">
       <c r="E83" s="1">
-        <f t="shared" si="5"/>
+        <f>C83*D83</f>
         <v>0</v>
       </c>
       <c r="J83" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E83/F83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E83/G83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L83" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J83/H83</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M83" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K83/I83</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="5:13" hidden="1">
       <c r="E84" s="1">
-        <f t="shared" si="5"/>
+        <f>C84*D84</f>
         <v>0</v>
       </c>
       <c r="J84" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E84/F84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E84/G84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L84" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J84/H84</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M84" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K84/I84</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="5:13" hidden="1">
       <c r="E85" s="1">
-        <f t="shared" si="5"/>
+        <f>C85*D85</f>
         <v>0</v>
       </c>
       <c r="J85" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E85/F85</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E85/G85</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L85" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J85/H85</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M85" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K85/I85</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="5:13" hidden="1">
       <c r="E86" s="1">
-        <f t="shared" si="5"/>
+        <f>C86*D86</f>
         <v>0</v>
       </c>
       <c r="J86" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E86/F86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E86/G86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L86" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J86/H86</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M86" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K86/I86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" spans="5:13" hidden="1">
       <c r="E87" s="1">
-        <f t="shared" si="5"/>
+        <f>C87*D87</f>
         <v>0</v>
       </c>
       <c r="J87" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E87/F87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E87/G87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L87" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J87/H87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M87" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K87/I87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="5:13" hidden="1">
       <c r="E88" s="1">
-        <f t="shared" si="5"/>
+        <f>C88*D88</f>
         <v>0</v>
       </c>
       <c r="J88" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E88/F88</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E88/G88</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L88" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J88/H88</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M88" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K88/I88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="5:13" hidden="1">
       <c r="E89" s="1">
-        <f t="shared" si="5"/>
+        <f>C89*D89</f>
         <v>0</v>
       </c>
       <c r="J89" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E89/F89</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E89/G89</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L89" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J89/H89</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M89" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K89/I89</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="90" spans="5:13" hidden="1">
       <c r="E90" s="1">
-        <f t="shared" si="5"/>
+        <f>C90*D90</f>
         <v>0</v>
       </c>
       <c r="J90" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E90/F90</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E90/G90</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L90" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J90/H90</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M90" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K90/I90</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="91" spans="5:13" hidden="1">
       <c r="E91" s="1">
-        <f t="shared" si="5"/>
+        <f>C91*D91</f>
         <v>0</v>
       </c>
       <c r="J91" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E91/F91</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E91/G91</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L91" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J91/H91</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M91" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K91/I91</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="5:13" hidden="1">
       <c r="E92" s="1">
-        <f t="shared" si="5"/>
+        <f>C92*D92</f>
         <v>0</v>
       </c>
       <c r="J92" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E92/F92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E92/G92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L92" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J92/H92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M92" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K92/I92</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="5:13" hidden="1">
       <c r="E93" s="1">
-        <f t="shared" si="5"/>
+        <f>C93*D93</f>
         <v>0</v>
       </c>
       <c r="J93" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E93/F93</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E93/G93</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L93" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J93/H93</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M93" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K93/I93</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="5:13" hidden="1">
       <c r="E94" s="1">
-        <f t="shared" si="5"/>
+        <f>C94*D94</f>
         <v>0</v>
       </c>
       <c r="J94" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E94/F94</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E94/G94</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L94" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J94/H94</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M94" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K94/I94</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="5:13" hidden="1">
       <c r="E95" s="1">
-        <f t="shared" si="5"/>
+        <f>C95*D95</f>
         <v>0</v>
       </c>
       <c r="J95" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E95/F95</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E95/G95</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L95" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J95/H95</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M95" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K95/I95</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="5:13" hidden="1">
       <c r="E96" s="1">
-        <f t="shared" si="5"/>
+        <f>C96*D96</f>
         <v>0</v>
       </c>
       <c r="J96" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E96/F96</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E96/G96</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L96" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J96/H96</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M96" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K96/I96</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="5:13" hidden="1">
       <c r="E97" s="1">
-        <f t="shared" si="5"/>
+        <f>C97*D97</f>
         <v>0</v>
       </c>
       <c r="J97" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E97/F97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E97/G97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L97" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J97/H97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M97" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K97/I97</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="5:13" hidden="1">
       <c r="E98" s="1">
-        <f t="shared" si="5"/>
+        <f>C98*D98</f>
         <v>0</v>
       </c>
       <c r="J98" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E98/F98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E98/G98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L98" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J98/H98</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M98" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K98/I98</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="5:13" hidden="1">
       <c r="E99" s="1">
-        <f t="shared" si="5"/>
+        <f>C99*D99</f>
         <v>0</v>
       </c>
       <c r="J99" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E99/F99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E99/G99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L99" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J99/H99</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M99" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K99/I99</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="5:13" hidden="1">
       <c r="E100" s="1">
-        <f t="shared" si="5"/>
+        <f>C100*D100</f>
         <v>0</v>
       </c>
       <c r="J100" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E100/F100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E100/G100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L100" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J100/H100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M100" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K100/I100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="101" spans="5:13" hidden="1">
       <c r="E101" s="1">
-        <f t="shared" si="5"/>
+        <f>C101*D101</f>
         <v>0</v>
       </c>
       <c r="J101" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E101/F101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E101/G101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L101" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J101/H101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M101" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K101/I101</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="102" spans="5:13" hidden="1">
       <c r="E102" s="1">
-        <f t="shared" si="5"/>
+        <f>C102*D102</f>
         <v>0</v>
       </c>
       <c r="J102" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E102/F102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K102" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E102/G102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L102" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J102/H102</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M102" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K102/I102</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="103" spans="5:13" hidden="1">
       <c r="E103" s="1">
-        <f t="shared" si="5"/>
+        <f>C103*D103</f>
         <v>0</v>
       </c>
       <c r="J103" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E103/F103</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E103/G103</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L103" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J103/H103</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M103" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K103/I103</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="5:13" hidden="1">
       <c r="E104" s="1">
-        <f t="shared" si="5"/>
+        <f>C104*D104</f>
         <v>0</v>
       </c>
       <c r="J104" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E104/F104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K104" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E104/G104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L104" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J104/H104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M104" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K104/I104</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="5:13" hidden="1">
       <c r="E105" s="1">
-        <f t="shared" si="5"/>
+        <f>C105*D105</f>
         <v>0</v>
       </c>
       <c r="J105" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E105/F105</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E105/G105</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L105" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J105/H105</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M105" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K105/I105</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="5:13" hidden="1">
       <c r="E106" s="1">
-        <f t="shared" si="5"/>
+        <f>C106*D106</f>
         <v>0</v>
       </c>
       <c r="J106" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>E106/F106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E106/G106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L106" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J106/H106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M106" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K106/I106</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="107" spans="5:13" hidden="1">
       <c r="E107" s="1">
-        <f t="shared" si="5"/>
+        <f>C107*D107</f>
         <v>0</v>
       </c>
       <c r="J107" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K107" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f>E107/F107</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L107" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f>J107/H107</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M107" s="3" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="5:13" hidden="1">
-      <c r="E108" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L108" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M108" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f>K107/I107</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L108">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:O107">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="102.0"/>
+        <filter val="104.6"/>
+        <filter val="31.6"/>
+        <filter val="38.2"/>
+        <filter val="39.8"/>
+        <filter val="41.6"/>
+        <filter val="42.8"/>
+        <filter val="47.0"/>
+        <filter val="47.5"/>
+        <filter val="48.5"/>
+        <filter val="48.8"/>
+        <filter val="50.3"/>
+        <filter val="50.5"/>
+        <filter val="54.0"/>
+        <filter val="54.7"/>
+        <filter val="55.5"/>
+        <filter val="57.1"/>
+        <filter val="58.0"/>
+        <filter val="58.8"/>
+        <filter val="61.3"/>
+        <filter val="62.6"/>
+        <filter val="63.0"/>
+        <filter val="63.2"/>
+        <filter val="66.7"/>
+        <filter val="66.8"/>
+        <filter val="70.5"/>
+        <filter val="72.6"/>
+        <filter val="73.6"/>
+        <filter val="78.3"/>
+        <filter val="78.9"/>
+        <filter val="79.1"/>
+        <filter val="80.8"/>
+        <filter val="82.8"/>
+        <filter val="88.8"/>
+        <filter val="92.4"/>
+        <filter val="96.5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
       <filters>
         <filter val="0.31"/>
-        <filter val="0.38"/>
-        <filter val="0.40"/>
         <filter val="0.44"/>
         <filter val="0.50"/>
         <filter val="0.70"/>
@@ -3967,10 +3952,9 @@
         <filter val="1.37"/>
         <filter val="1.85"/>
         <filter val="1.87"/>
-        <filter val="-10.22"/>
+        <filter val="1.91"/>
         <filter val="11.30"/>
         <filter val="13.06"/>
-        <filter val="-14.71"/>
         <filter val="2.08"/>
         <filter val="2.10"/>
         <filter val="2.11"/>
@@ -3978,6 +3962,7 @@
         <filter val="2.39"/>
         <filter val="2.44"/>
         <filter val="2.48"/>
+        <filter val="2.53"/>
         <filter val="3.16"/>
         <filter val="3.59"/>
         <filter val="4.43"/>
@@ -3991,10 +3976,13 @@
         <filter val="96.53"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:O43">
-      <sortCondition ref="L1:L108"/>
+    <sortState ref="A2:O42">
+      <sortCondition ref="L1:L107"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:O108">
+    <sortCondition ref="J1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
